--- a/data/timetable_output_table.xlsx
+++ b/data/timetable_output_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\herşey\R_projects\GTFS_for_Athens\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C6694A-E9A3-4A3C-94C4-C7ED041A25AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40490185-8E69-451A-A402-9FD8CAE07C7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -799,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C238" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I237" sqref="I237"/>
+    <sheetView tabSelected="1" topLeftCell="A217" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C250" sqref="C250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7000,7 +7000,7 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B243" t="s">
         <v>110</v>
@@ -7024,7 +7024,7 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B244" t="s">
         <v>110</v>
@@ -7048,7 +7048,7 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B245" t="s">
         <v>110</v>

--- a/data/timetable_output_table.xlsx
+++ b/data/timetable_output_table.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\herşey\R_projects\GTFS_for_Athens\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40490185-8E69-451A-A402-9FD8CAE07C7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C6ED5E-7500-4CCC-927B-9A2D6237FB73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$I$245</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="149">
   <si>
     <t>route_id</t>
   </si>
@@ -456,6 +459,27 @@
   </si>
   <si>
     <t>94 Columbus Rd</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>L6</t>
+  </si>
+  <si>
+    <t>L7n</t>
+  </si>
+  <si>
+    <t>L7a</t>
   </si>
 </sst>
 </file>
@@ -799,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C250" sqref="C250"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -841,8 +865,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>53</v>
+      <c r="A2" t="s">
+        <v>142</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -868,8 +892,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>53</v>
+      <c r="A3" t="s">
+        <v>142</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -892,8 +916,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>53</v>
+      <c r="A4" t="s">
+        <v>142</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -916,8 +940,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>53</v>
+      <c r="A5" t="s">
+        <v>142</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -940,8 +964,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>53</v>
+      <c r="A6" t="s">
+        <v>142</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -964,8 +988,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>53</v>
+      <c r="A7" t="s">
+        <v>142</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -988,8 +1012,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>53</v>
+      <c r="A8" t="s">
+        <v>142</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -1012,8 +1036,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>53</v>
+      <c r="A9" t="s">
+        <v>142</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -1036,8 +1060,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>53</v>
+      <c r="A10" t="s">
+        <v>142</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -1060,8 +1084,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>53</v>
+      <c r="A11" t="s">
+        <v>142</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
@@ -1084,8 +1108,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>53</v>
+      <c r="A12" t="s">
+        <v>142</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
@@ -1108,8 +1132,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>53</v>
+      <c r="A13" t="s">
+        <v>142</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
@@ -1132,8 +1156,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>53</v>
+      <c r="A14" t="s">
+        <v>142</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
@@ -1156,8 +1180,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>53</v>
+      <c r="A15" t="s">
+        <v>142</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
@@ -1180,8 +1204,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>53</v>
+      <c r="A16" t="s">
+        <v>142</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -1204,8 +1228,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>53</v>
+      <c r="A17" t="s">
+        <v>142</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
@@ -1228,8 +1252,8 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>53</v>
+      <c r="A18" t="s">
+        <v>142</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
@@ -1252,8 +1276,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>53</v>
+      <c r="A19" t="s">
+        <v>142</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
@@ -1276,8 +1300,8 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>53</v>
+      <c r="A20" t="s">
+        <v>142</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
@@ -1303,8 +1327,8 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>53</v>
+      <c r="A21" t="s">
+        <v>142</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
@@ -1327,8 +1351,8 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>53</v>
+      <c r="A22" t="s">
+        <v>142</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
@@ -1351,8 +1375,8 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>53</v>
+      <c r="A23" t="s">
+        <v>142</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -1375,8 +1399,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>53</v>
+      <c r="A24" t="s">
+        <v>142</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
@@ -1399,8 +1423,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>53</v>
+      <c r="A25" t="s">
+        <v>142</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
@@ -1423,8 +1447,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>53</v>
+      <c r="A26" t="s">
+        <v>142</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
@@ -1447,8 +1471,8 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>53</v>
+      <c r="A27" t="s">
+        <v>142</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
@@ -1471,8 +1495,8 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>53</v>
+      <c r="A28" t="s">
+        <v>142</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
@@ -1495,8 +1519,8 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>53</v>
+      <c r="A29" t="s">
+        <v>142</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
@@ -1519,8 +1543,8 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>53</v>
+      <c r="A30" t="s">
+        <v>142</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
@@ -1543,8 +1567,8 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>53</v>
+      <c r="A31" t="s">
+        <v>142</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
@@ -1567,8 +1591,8 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>53</v>
+      <c r="A32" t="s">
+        <v>142</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
@@ -1591,8 +1615,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>53</v>
+      <c r="A33" t="s">
+        <v>142</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
@@ -1615,8 +1639,8 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>53</v>
+      <c r="A34" t="s">
+        <v>142</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
@@ -1639,8 +1663,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>53</v>
+      <c r="A35" t="s">
+        <v>142</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
@@ -1663,8 +1687,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>53</v>
+      <c r="A36" t="s">
+        <v>142</v>
       </c>
       <c r="B36" t="s">
         <v>5</v>
@@ -1687,8 +1711,8 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>53</v>
+      <c r="A37" t="s">
+        <v>142</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
@@ -1711,8 +1735,8 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>53</v>
+      <c r="A38" t="s">
+        <v>142</v>
       </c>
       <c r="B38" t="s">
         <v>5</v>
@@ -1735,8 +1759,8 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>53</v>
+      <c r="A39" t="s">
+        <v>142</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
@@ -1759,8 +1783,8 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>53</v>
+      <c r="A40" t="s">
+        <v>142</v>
       </c>
       <c r="B40" t="s">
         <v>5</v>
@@ -1783,8 +1807,8 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>53</v>
+      <c r="A41" t="s">
+        <v>142</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
@@ -1807,8 +1831,8 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>53</v>
+      <c r="A42" t="s">
+        <v>142</v>
       </c>
       <c r="B42" t="s">
         <v>5</v>
@@ -1831,8 +1855,8 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>53</v>
+      <c r="A43" t="s">
+        <v>142</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
@@ -1855,8 +1879,8 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <v>53</v>
+      <c r="A44" t="s">
+        <v>142</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
@@ -1879,8 +1903,8 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>53</v>
+      <c r="A45" t="s">
+        <v>142</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
@@ -1904,8 +1928,8 @@
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>54</v>
+      <c r="A46" t="s">
+        <v>143</v>
       </c>
       <c r="B46" t="s">
         <v>46</v>
@@ -1928,8 +1952,8 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <v>54</v>
+      <c r="A47" t="s">
+        <v>143</v>
       </c>
       <c r="B47" t="s">
         <v>46</v>
@@ -1952,8 +1976,8 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A48">
-        <v>54</v>
+      <c r="A48" t="s">
+        <v>143</v>
       </c>
       <c r="B48" t="s">
         <v>46</v>
@@ -1979,8 +2003,8 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A49">
-        <v>54</v>
+      <c r="A49" t="s">
+        <v>143</v>
       </c>
       <c r="B49" t="s">
         <v>46</v>
@@ -2006,8 +2030,8 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A50">
-        <v>54</v>
+      <c r="A50" t="s">
+        <v>143</v>
       </c>
       <c r="B50" t="s">
         <v>46</v>
@@ -2030,8 +2054,8 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A51">
-        <v>54</v>
+      <c r="A51" t="s">
+        <v>143</v>
       </c>
       <c r="B51" t="s">
         <v>46</v>
@@ -2054,8 +2078,8 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <v>54</v>
+      <c r="A52" t="s">
+        <v>143</v>
       </c>
       <c r="B52" t="s">
         <v>46</v>
@@ -2078,8 +2102,8 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A53">
-        <v>54</v>
+      <c r="A53" t="s">
+        <v>143</v>
       </c>
       <c r="B53" t="s">
         <v>46</v>
@@ -2102,8 +2126,8 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A54">
-        <v>54</v>
+      <c r="A54" t="s">
+        <v>143</v>
       </c>
       <c r="B54" t="s">
         <v>46</v>
@@ -2126,8 +2150,8 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A55">
-        <v>54</v>
+      <c r="A55" t="s">
+        <v>143</v>
       </c>
       <c r="B55" t="s">
         <v>46</v>
@@ -2149,8 +2173,8 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A56">
-        <v>54</v>
+      <c r="A56" t="s">
+        <v>143</v>
       </c>
       <c r="B56" t="s">
         <v>46</v>
@@ -2173,8 +2197,8 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A57">
-        <v>54</v>
+      <c r="A57" t="s">
+        <v>143</v>
       </c>
       <c r="B57" t="s">
         <v>46</v>
@@ -2197,8 +2221,8 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A58">
-        <v>54</v>
+      <c r="A58" t="s">
+        <v>143</v>
       </c>
       <c r="B58" t="s">
         <v>46</v>
@@ -2221,8 +2245,8 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A59">
-        <v>54</v>
+      <c r="A59" t="s">
+        <v>143</v>
       </c>
       <c r="B59" t="s">
         <v>46</v>
@@ -2245,8 +2269,8 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A60">
-        <v>54</v>
+      <c r="A60" t="s">
+        <v>143</v>
       </c>
       <c r="B60" t="s">
         <v>46</v>
@@ -2269,8 +2293,8 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A61">
-        <v>54</v>
+      <c r="A61" t="s">
+        <v>143</v>
       </c>
       <c r="B61" t="s">
         <v>46</v>
@@ -2293,8 +2317,8 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A62">
-        <v>54</v>
+      <c r="A62" t="s">
+        <v>143</v>
       </c>
       <c r="B62" t="s">
         <v>46</v>
@@ -2317,8 +2341,8 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A63">
-        <v>54</v>
+      <c r="A63" t="s">
+        <v>143</v>
       </c>
       <c r="B63" t="s">
         <v>46</v>
@@ -2341,8 +2365,8 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A64">
-        <v>54</v>
+      <c r="A64" t="s">
+        <v>143</v>
       </c>
       <c r="B64" t="s">
         <v>46</v>
@@ -2365,8 +2389,8 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A65">
-        <v>54</v>
+      <c r="A65" t="s">
+        <v>143</v>
       </c>
       <c r="B65" t="s">
         <v>46</v>
@@ -2389,8 +2413,8 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A66">
-        <v>54</v>
+      <c r="A66" t="s">
+        <v>143</v>
       </c>
       <c r="B66" t="s">
         <v>46</v>
@@ -2413,8 +2437,8 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A67">
-        <v>54</v>
+      <c r="A67" t="s">
+        <v>143</v>
       </c>
       <c r="B67" t="s">
         <v>46</v>
@@ -2437,8 +2461,8 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A68">
-        <v>54</v>
+      <c r="A68" t="s">
+        <v>143</v>
       </c>
       <c r="B68" t="s">
         <v>46</v>
@@ -2461,8 +2485,8 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A69">
-        <v>54</v>
+      <c r="A69" t="s">
+        <v>143</v>
       </c>
       <c r="B69" t="s">
         <v>46</v>
@@ -2485,8 +2509,8 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A70">
-        <v>54</v>
+      <c r="A70" t="s">
+        <v>143</v>
       </c>
       <c r="B70" t="s">
         <v>46</v>
@@ -2512,8 +2536,8 @@
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A71">
-        <v>54</v>
+      <c r="A71" t="s">
+        <v>143</v>
       </c>
       <c r="B71" t="s">
         <v>46</v>
@@ -2536,8 +2560,8 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A72">
-        <v>54</v>
+      <c r="A72" t="s">
+        <v>143</v>
       </c>
       <c r="B72" t="s">
         <v>46</v>
@@ -2560,8 +2584,8 @@
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A73">
-        <v>54</v>
+      <c r="A73" t="s">
+        <v>143</v>
       </c>
       <c r="B73" t="s">
         <v>46</v>
@@ -2584,8 +2608,8 @@
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A74">
-        <v>54</v>
+      <c r="A74" t="s">
+        <v>143</v>
       </c>
       <c r="B74" t="s">
         <v>46</v>
@@ -2608,8 +2632,8 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A75">
-        <v>54</v>
+      <c r="A75" t="s">
+        <v>143</v>
       </c>
       <c r="B75" t="s">
         <v>46</v>
@@ -2632,8 +2656,8 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A76">
-        <v>54</v>
+      <c r="A76" t="s">
+        <v>143</v>
       </c>
       <c r="B76" t="s">
         <v>46</v>
@@ -2656,8 +2680,8 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A77">
-        <v>54</v>
+      <c r="A77" t="s">
+        <v>143</v>
       </c>
       <c r="B77" t="s">
         <v>46</v>
@@ -2680,8 +2704,8 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A78">
-        <v>54</v>
+      <c r="A78" t="s">
+        <v>143</v>
       </c>
       <c r="B78" t="s">
         <v>46</v>
@@ -2704,8 +2728,8 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A79">
-        <v>54</v>
+      <c r="A79" t="s">
+        <v>143</v>
       </c>
       <c r="B79" t="s">
         <v>46</v>
@@ -2728,8 +2752,8 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A80">
-        <v>54</v>
+      <c r="A80" t="s">
+        <v>143</v>
       </c>
       <c r="B80" t="s">
         <v>46</v>
@@ -2752,8 +2776,8 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A81">
-        <v>54</v>
+      <c r="A81" t="s">
+        <v>143</v>
       </c>
       <c r="B81" t="s">
         <v>46</v>
@@ -2776,8 +2800,8 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A82">
-        <v>54</v>
+      <c r="A82" t="s">
+        <v>143</v>
       </c>
       <c r="B82" t="s">
         <v>46</v>
@@ -2800,8 +2824,8 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A83">
-        <v>54</v>
+      <c r="A83" t="s">
+        <v>143</v>
       </c>
       <c r="B83" t="s">
         <v>46</v>
@@ -2824,8 +2848,8 @@
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A84">
-        <v>54</v>
+      <c r="A84" t="s">
+        <v>143</v>
       </c>
       <c r="B84" t="s">
         <v>46</v>
@@ -2848,8 +2872,8 @@
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A85">
-        <v>54</v>
+      <c r="A85" t="s">
+        <v>143</v>
       </c>
       <c r="B85" t="s">
         <v>46</v>
@@ -2872,8 +2896,8 @@
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A86">
-        <v>54</v>
+      <c r="A86" t="s">
+        <v>143</v>
       </c>
       <c r="B86" t="s">
         <v>46</v>
@@ -2896,8 +2920,8 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A87">
-        <v>54</v>
+      <c r="A87" t="s">
+        <v>143</v>
       </c>
       <c r="B87" t="s">
         <v>46</v>
@@ -2920,8 +2944,8 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A88">
-        <v>54</v>
+      <c r="A88" t="s">
+        <v>143</v>
       </c>
       <c r="B88" t="s">
         <v>46</v>
@@ -2944,8 +2968,8 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A89">
-        <v>54</v>
+      <c r="A89" t="s">
+        <v>143</v>
       </c>
       <c r="B89" t="s">
         <v>46</v>
@@ -2971,8 +2995,8 @@
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A90">
-        <v>54</v>
+      <c r="A90" t="s">
+        <v>143</v>
       </c>
       <c r="B90" t="s">
         <v>46</v>
@@ -2998,8 +3022,8 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A91">
-        <v>55</v>
+      <c r="A91" t="s">
+        <v>144</v>
       </c>
       <c r="B91" t="s">
         <v>52</v>
@@ -3022,8 +3046,8 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A92">
-        <v>55</v>
+      <c r="A92" t="s">
+        <v>144</v>
       </c>
       <c r="B92" t="s">
         <v>52</v>
@@ -3046,8 +3070,8 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A93">
-        <v>55</v>
+      <c r="A93" t="s">
+        <v>144</v>
       </c>
       <c r="B93" t="s">
         <v>52</v>
@@ -3070,8 +3094,8 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A94">
-        <v>55</v>
+      <c r="A94" t="s">
+        <v>144</v>
       </c>
       <c r="B94" t="s">
         <v>52</v>
@@ -3094,8 +3118,8 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A95">
-        <v>55</v>
+      <c r="A95" t="s">
+        <v>144</v>
       </c>
       <c r="B95" t="s">
         <v>52</v>
@@ -3118,8 +3142,8 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A96">
-        <v>55</v>
+      <c r="A96" t="s">
+        <v>144</v>
       </c>
       <c r="B96" t="s">
         <v>52</v>
@@ -3142,8 +3166,8 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A97">
-        <v>55</v>
+      <c r="A97" t="s">
+        <v>144</v>
       </c>
       <c r="B97" t="s">
         <v>52</v>
@@ -3166,8 +3190,8 @@
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A98">
-        <v>55</v>
+      <c r="A98" t="s">
+        <v>144</v>
       </c>
       <c r="B98" t="s">
         <v>52</v>
@@ -3190,8 +3214,8 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A99">
-        <v>55</v>
+      <c r="A99" t="s">
+        <v>144</v>
       </c>
       <c r="B99" t="s">
         <v>52</v>
@@ -3214,8 +3238,8 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A100">
-        <v>55</v>
+      <c r="A100" t="s">
+        <v>144</v>
       </c>
       <c r="B100" t="s">
         <v>52</v>
@@ -3238,8 +3262,8 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A101">
-        <v>55</v>
+      <c r="A101" t="s">
+        <v>144</v>
       </c>
       <c r="B101" t="s">
         <v>52</v>
@@ -3262,8 +3286,8 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A102">
-        <v>55</v>
+      <c r="A102" t="s">
+        <v>144</v>
       </c>
       <c r="B102" t="s">
         <v>52</v>
@@ -3286,8 +3310,8 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A103">
-        <v>55</v>
+      <c r="A103" t="s">
+        <v>144</v>
       </c>
       <c r="B103" t="s">
         <v>52</v>
@@ -3310,8 +3334,8 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A104">
-        <v>55</v>
+      <c r="A104" t="s">
+        <v>144</v>
       </c>
       <c r="B104" t="s">
         <v>52</v>
@@ -3334,8 +3358,8 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A105">
-        <v>55</v>
+      <c r="A105" t="s">
+        <v>144</v>
       </c>
       <c r="B105" t="s">
         <v>52</v>
@@ -3358,8 +3382,8 @@
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A106">
-        <v>55</v>
+      <c r="A106" t="s">
+        <v>144</v>
       </c>
       <c r="B106" t="s">
         <v>52</v>
@@ -3382,8 +3406,8 @@
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A107">
-        <v>55</v>
+      <c r="A107" t="s">
+        <v>144</v>
       </c>
       <c r="B107" t="s">
         <v>52</v>
@@ -3406,8 +3430,8 @@
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A108">
-        <v>55</v>
+      <c r="A108" t="s">
+        <v>144</v>
       </c>
       <c r="B108" t="s">
         <v>52</v>
@@ -3430,8 +3454,8 @@
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A109">
-        <v>55</v>
+      <c r="A109" t="s">
+        <v>144</v>
       </c>
       <c r="B109" t="s">
         <v>52</v>
@@ -3453,8 +3477,8 @@
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A110">
-        <v>55</v>
+      <c r="A110" t="s">
+        <v>144</v>
       </c>
       <c r="B110" t="s">
         <v>52</v>
@@ -3477,8 +3501,8 @@
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A111">
-        <v>55</v>
+      <c r="A111" t="s">
+        <v>144</v>
       </c>
       <c r="B111" t="s">
         <v>52</v>
@@ -3501,8 +3525,8 @@
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A112">
-        <v>55</v>
+      <c r="A112" t="s">
+        <v>144</v>
       </c>
       <c r="B112" t="s">
         <v>52</v>
@@ -3525,8 +3549,8 @@
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A113">
-        <v>55</v>
+      <c r="A113" t="s">
+        <v>144</v>
       </c>
       <c r="B113" t="s">
         <v>52</v>
@@ -3549,8 +3573,8 @@
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A114">
-        <v>55</v>
+      <c r="A114" t="s">
+        <v>144</v>
       </c>
       <c r="B114" t="s">
         <v>52</v>
@@ -3573,8 +3597,8 @@
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A115">
-        <v>55</v>
+      <c r="A115" t="s">
+        <v>144</v>
       </c>
       <c r="B115" t="s">
         <v>52</v>
@@ -3597,8 +3621,8 @@
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A116">
-        <v>55</v>
+      <c r="A116" t="s">
+        <v>144</v>
       </c>
       <c r="B116" t="s">
         <v>52</v>
@@ -3621,8 +3645,8 @@
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A117">
-        <v>55</v>
+      <c r="A117" t="s">
+        <v>144</v>
       </c>
       <c r="B117" t="s">
         <v>52</v>
@@ -3645,8 +3669,8 @@
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A118">
-        <v>55</v>
+      <c r="A118" t="s">
+        <v>144</v>
       </c>
       <c r="B118" t="s">
         <v>52</v>
@@ -3669,8 +3693,8 @@
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A119">
-        <v>55</v>
+      <c r="A119" t="s">
+        <v>144</v>
       </c>
       <c r="B119" t="s">
         <v>52</v>
@@ -3693,8 +3717,8 @@
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A120">
-        <v>55</v>
+      <c r="A120" t="s">
+        <v>144</v>
       </c>
       <c r="B120" t="s">
         <v>52</v>
@@ -3717,8 +3741,8 @@
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A121">
-        <v>55</v>
+      <c r="A121" t="s">
+        <v>144</v>
       </c>
       <c r="B121" t="s">
         <v>52</v>
@@ -3741,8 +3765,8 @@
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A122">
-        <v>55</v>
+      <c r="A122" t="s">
+        <v>144</v>
       </c>
       <c r="B122" t="s">
         <v>52</v>
@@ -3765,8 +3789,8 @@
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A123">
-        <v>55</v>
+      <c r="A123" t="s">
+        <v>144</v>
       </c>
       <c r="B123" t="s">
         <v>52</v>
@@ -3789,8 +3813,8 @@
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A124">
-        <v>55</v>
+      <c r="A124" t="s">
+        <v>144</v>
       </c>
       <c r="B124" t="s">
         <v>52</v>
@@ -3816,8 +3840,8 @@
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A125">
-        <v>55</v>
+      <c r="A125" t="s">
+        <v>144</v>
       </c>
       <c r="B125" t="s">
         <v>52</v>
@@ -3840,8 +3864,8 @@
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A126">
-        <v>55</v>
+      <c r="A126" t="s">
+        <v>144</v>
       </c>
       <c r="B126" t="s">
         <v>52</v>
@@ -3864,8 +3888,8 @@
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A127">
-        <v>56</v>
+      <c r="A127" t="s">
+        <v>145</v>
       </c>
       <c r="B127" t="s">
         <v>74</v>
@@ -3888,8 +3912,8 @@
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A128">
-        <v>56</v>
+      <c r="A128" t="s">
+        <v>145</v>
       </c>
       <c r="B128" t="s">
         <v>74</v>
@@ -3912,8 +3936,8 @@
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A129">
-        <v>56</v>
+      <c r="A129" t="s">
+        <v>145</v>
       </c>
       <c r="B129" t="s">
         <v>74</v>
@@ -3936,8 +3960,8 @@
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A130">
-        <v>56</v>
+      <c r="A130" t="s">
+        <v>145</v>
       </c>
       <c r="B130" t="s">
         <v>74</v>
@@ -3960,8 +3984,8 @@
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A131">
-        <v>56</v>
+      <c r="A131" t="s">
+        <v>145</v>
       </c>
       <c r="B131" t="s">
         <v>74</v>
@@ -3984,8 +4008,8 @@
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A132">
-        <v>56</v>
+      <c r="A132" t="s">
+        <v>145</v>
       </c>
       <c r="B132" t="s">
         <v>74</v>
@@ -4008,8 +4032,8 @@
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A133">
-        <v>56</v>
+      <c r="A133" t="s">
+        <v>145</v>
       </c>
       <c r="B133" t="s">
         <v>74</v>
@@ -4031,8 +4055,8 @@
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A134">
-        <v>56</v>
+      <c r="A134" t="s">
+        <v>145</v>
       </c>
       <c r="B134" t="s">
         <v>74</v>
@@ -4055,8 +4079,8 @@
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A135">
-        <v>56</v>
+      <c r="A135" t="s">
+        <v>145</v>
       </c>
       <c r="B135" t="s">
         <v>74</v>
@@ -4079,8 +4103,8 @@
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A136">
-        <v>56</v>
+      <c r="A136" t="s">
+        <v>145</v>
       </c>
       <c r="B136" t="s">
         <v>74</v>
@@ -4103,8 +4127,8 @@
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A137">
-        <v>56</v>
+      <c r="A137" t="s">
+        <v>145</v>
       </c>
       <c r="B137" t="s">
         <v>74</v>
@@ -4127,8 +4151,8 @@
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A138">
-        <v>56</v>
+      <c r="A138" t="s">
+        <v>145</v>
       </c>
       <c r="B138" t="s">
         <v>74</v>
@@ -4151,8 +4175,8 @@
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A139">
-        <v>56</v>
+      <c r="A139" t="s">
+        <v>145</v>
       </c>
       <c r="B139" t="s">
         <v>74</v>
@@ -4175,8 +4199,8 @@
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A140">
-        <v>56</v>
+      <c r="A140" t="s">
+        <v>145</v>
       </c>
       <c r="B140" t="s">
         <v>74</v>
@@ -4199,8 +4223,8 @@
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A141">
-        <v>56</v>
+      <c r="A141" t="s">
+        <v>145</v>
       </c>
       <c r="B141" t="s">
         <v>74</v>
@@ -4223,8 +4247,8 @@
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A142">
-        <v>56</v>
+      <c r="A142" t="s">
+        <v>145</v>
       </c>
       <c r="B142" t="s">
         <v>74</v>
@@ -4247,8 +4271,8 @@
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A143">
-        <v>56</v>
+      <c r="A143" t="s">
+        <v>145</v>
       </c>
       <c r="B143" t="s">
         <v>74</v>
@@ -4274,8 +4298,8 @@
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A144">
-        <v>56</v>
+      <c r="A144" t="s">
+        <v>145</v>
       </c>
       <c r="B144" t="s">
         <v>74</v>
@@ -4297,8 +4321,8 @@
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A145">
-        <v>56</v>
+      <c r="A145" t="s">
+        <v>145</v>
       </c>
       <c r="B145" t="s">
         <v>74</v>
@@ -4321,8 +4345,8 @@
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A146">
-        <v>56</v>
+      <c r="A146" t="s">
+        <v>145</v>
       </c>
       <c r="B146" t="s">
         <v>74</v>
@@ -4348,8 +4372,8 @@
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A147">
-        <v>56</v>
+      <c r="A147" t="s">
+        <v>145</v>
       </c>
       <c r="B147" t="s">
         <v>74</v>
@@ -4372,8 +4396,8 @@
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A148">
-        <v>56</v>
+      <c r="A148" t="s">
+        <v>145</v>
       </c>
       <c r="B148" t="s">
         <v>74</v>
@@ -4396,8 +4420,8 @@
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A149">
-        <v>56</v>
+      <c r="A149" t="s">
+        <v>145</v>
       </c>
       <c r="B149" t="s">
         <v>74</v>
@@ -4420,8 +4444,8 @@
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A150">
-        <v>56</v>
+      <c r="A150" t="s">
+        <v>145</v>
       </c>
       <c r="B150" t="s">
         <v>74</v>
@@ -4444,8 +4468,8 @@
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A151">
-        <v>56</v>
+      <c r="A151" t="s">
+        <v>145</v>
       </c>
       <c r="B151" t="s">
         <v>74</v>
@@ -4468,8 +4492,8 @@
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A152">
-        <v>56</v>
+      <c r="A152" t="s">
+        <v>145</v>
       </c>
       <c r="B152" t="s">
         <v>74</v>
@@ -4492,8 +4516,8 @@
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A153">
-        <v>57</v>
+      <c r="A153" t="s">
+        <v>146</v>
       </c>
       <c r="B153" t="s">
         <v>94</v>
@@ -4516,8 +4540,8 @@
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A154">
-        <v>57</v>
+      <c r="A154" t="s">
+        <v>146</v>
       </c>
       <c r="B154" t="s">
         <v>94</v>
@@ -4540,8 +4564,8 @@
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A155">
-        <v>57</v>
+      <c r="A155" t="s">
+        <v>146</v>
       </c>
       <c r="B155" t="s">
         <v>94</v>
@@ -4564,8 +4588,8 @@
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A156">
-        <v>57</v>
+      <c r="A156" t="s">
+        <v>146</v>
       </c>
       <c r="B156" t="s">
         <v>94</v>
@@ -4588,8 +4612,8 @@
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A157">
-        <v>57</v>
+      <c r="A157" t="s">
+        <v>146</v>
       </c>
       <c r="B157" t="s">
         <v>94</v>
@@ -4612,8 +4636,8 @@
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A158">
-        <v>57</v>
+      <c r="A158" t="s">
+        <v>146</v>
       </c>
       <c r="B158" t="s">
         <v>94</v>
@@ -4639,8 +4663,8 @@
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A159">
-        <v>57</v>
+      <c r="A159" t="s">
+        <v>146</v>
       </c>
       <c r="B159" t="s">
         <v>94</v>
@@ -4663,8 +4687,8 @@
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A160">
-        <v>57</v>
+      <c r="A160" t="s">
+        <v>146</v>
       </c>
       <c r="B160" t="s">
         <v>94</v>
@@ -4687,8 +4711,8 @@
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A161">
-        <v>57</v>
+      <c r="A161" t="s">
+        <v>146</v>
       </c>
       <c r="B161" t="s">
         <v>94</v>
@@ -4711,8 +4735,8 @@
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A162">
-        <v>57</v>
+      <c r="A162" t="s">
+        <v>146</v>
       </c>
       <c r="B162" t="s">
         <v>94</v>
@@ -4735,8 +4759,8 @@
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A163">
-        <v>57</v>
+      <c r="A163" t="s">
+        <v>146</v>
       </c>
       <c r="B163" t="s">
         <v>94</v>
@@ -4759,8 +4783,8 @@
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A164">
-        <v>57</v>
+      <c r="A164" t="s">
+        <v>146</v>
       </c>
       <c r="B164" t="s">
         <v>94</v>
@@ -4783,8 +4807,8 @@
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A165">
-        <v>57</v>
+      <c r="A165" t="s">
+        <v>146</v>
       </c>
       <c r="B165" t="s">
         <v>94</v>
@@ -4807,8 +4831,8 @@
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A166">
-        <v>57</v>
+      <c r="A166" t="s">
+        <v>146</v>
       </c>
       <c r="B166" t="s">
         <v>94</v>
@@ -4831,8 +4855,8 @@
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A167">
-        <v>57</v>
+      <c r="A167" t="s">
+        <v>146</v>
       </c>
       <c r="B167" t="s">
         <v>94</v>
@@ -4855,8 +4879,8 @@
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A168">
-        <v>57</v>
+      <c r="A168" t="s">
+        <v>146</v>
       </c>
       <c r="B168" t="s">
         <v>94</v>
@@ -4879,8 +4903,8 @@
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A169">
-        <v>57</v>
+      <c r="A169" t="s">
+        <v>146</v>
       </c>
       <c r="B169" t="s">
         <v>94</v>
@@ -4903,8 +4927,8 @@
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A170">
-        <v>57</v>
+      <c r="A170" t="s">
+        <v>146</v>
       </c>
       <c r="B170" t="s">
         <v>94</v>
@@ -4930,8 +4954,8 @@
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A171">
-        <v>57</v>
+      <c r="A171" t="s">
+        <v>146</v>
       </c>
       <c r="B171" t="s">
         <v>94</v>
@@ -4953,8 +4977,8 @@
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A172">
-        <v>57</v>
+      <c r="A172" t="s">
+        <v>146</v>
       </c>
       <c r="B172" t="s">
         <v>94</v>
@@ -4977,8 +5001,8 @@
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A173">
-        <v>57</v>
+      <c r="A173" t="s">
+        <v>146</v>
       </c>
       <c r="B173" t="s">
         <v>94</v>
@@ -5004,8 +5028,8 @@
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A174">
-        <v>57</v>
+      <c r="A174" t="s">
+        <v>146</v>
       </c>
       <c r="B174" t="s">
         <v>94</v>
@@ -5031,8 +5055,8 @@
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A175">
-        <v>57</v>
+      <c r="A175" t="s">
+        <v>146</v>
       </c>
       <c r="B175" t="s">
         <v>94</v>
@@ -5058,8 +5082,8 @@
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A176">
-        <v>57</v>
+      <c r="A176" t="s">
+        <v>146</v>
       </c>
       <c r="B176" t="s">
         <v>94</v>
@@ -5082,8 +5106,8 @@
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A177">
-        <v>57</v>
+      <c r="A177" t="s">
+        <v>146</v>
       </c>
       <c r="B177" t="s">
         <v>94</v>
@@ -5106,8 +5130,8 @@
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A178">
-        <v>57</v>
+      <c r="A178" t="s">
+        <v>146</v>
       </c>
       <c r="B178" t="s">
         <v>94</v>
@@ -5130,8 +5154,8 @@
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A179">
-        <v>57</v>
+      <c r="A179" t="s">
+        <v>146</v>
       </c>
       <c r="B179" t="s">
         <v>94</v>
@@ -5154,8 +5178,8 @@
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A180">
-        <v>57</v>
+      <c r="A180" t="s">
+        <v>146</v>
       </c>
       <c r="B180" t="s">
         <v>94</v>
@@ -5181,8 +5205,8 @@
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A181">
-        <v>57</v>
+      <c r="A181" t="s">
+        <v>146</v>
       </c>
       <c r="B181" t="s">
         <v>94</v>
@@ -5205,8 +5229,8 @@
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A182">
-        <v>57</v>
+      <c r="A182" t="s">
+        <v>146</v>
       </c>
       <c r="B182" t="s">
         <v>94</v>
@@ -5229,8 +5253,8 @@
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A183">
-        <v>57</v>
+      <c r="A183" t="s">
+        <v>146</v>
       </c>
       <c r="B183" t="s">
         <v>94</v>
@@ -5253,8 +5277,8 @@
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A184">
-        <v>57</v>
+      <c r="A184" t="s">
+        <v>146</v>
       </c>
       <c r="B184" t="s">
         <v>94</v>
@@ -5277,8 +5301,8 @@
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A185">
-        <v>57</v>
+      <c r="A185" t="s">
+        <v>146</v>
       </c>
       <c r="B185" t="s">
         <v>94</v>
@@ -5301,8 +5325,8 @@
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A186">
-        <v>57</v>
+      <c r="A186" t="s">
+        <v>146</v>
       </c>
       <c r="B186" t="s">
         <v>94</v>
@@ -5325,8 +5349,8 @@
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A187">
-        <v>57</v>
+      <c r="A187" t="s">
+        <v>146</v>
       </c>
       <c r="B187" t="s">
         <v>94</v>
@@ -5349,8 +5373,8 @@
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A188">
-        <v>76</v>
+      <c r="A188" t="s">
+        <v>147</v>
       </c>
       <c r="B188" t="s">
         <v>101</v>
@@ -5373,8 +5397,8 @@
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A189">
-        <v>76</v>
+      <c r="A189" t="s">
+        <v>147</v>
       </c>
       <c r="B189" t="s">
         <v>101</v>
@@ -5397,8 +5421,8 @@
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A190">
-        <v>76</v>
+      <c r="A190" t="s">
+        <v>147</v>
       </c>
       <c r="B190" t="s">
         <v>101</v>
@@ -5421,8 +5445,8 @@
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A191">
-        <v>76</v>
+      <c r="A191" t="s">
+        <v>147</v>
       </c>
       <c r="B191" t="s">
         <v>101</v>
@@ -5445,8 +5469,8 @@
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A192">
-        <v>76</v>
+      <c r="A192" t="s">
+        <v>147</v>
       </c>
       <c r="B192" t="s">
         <v>101</v>
@@ -5469,8 +5493,8 @@
       </c>
     </row>
     <row r="193" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A193">
-        <v>76</v>
+      <c r="A193" t="s">
+        <v>147</v>
       </c>
       <c r="B193" t="s">
         <v>101</v>
@@ -5493,8 +5517,8 @@
       </c>
     </row>
     <row r="194" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A194">
-        <v>76</v>
+      <c r="A194" t="s">
+        <v>147</v>
       </c>
       <c r="B194" t="s">
         <v>101</v>
@@ -5517,8 +5541,8 @@
       </c>
     </row>
     <row r="195" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A195">
-        <v>76</v>
+      <c r="A195" t="s">
+        <v>147</v>
       </c>
       <c r="B195" t="s">
         <v>101</v>
@@ -5541,8 +5565,8 @@
       </c>
     </row>
     <row r="196" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A196">
-        <v>76</v>
+      <c r="A196" t="s">
+        <v>147</v>
       </c>
       <c r="B196" t="s">
         <v>101</v>
@@ -5565,8 +5589,8 @@
       </c>
     </row>
     <row r="197" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A197">
-        <v>76</v>
+      <c r="A197" t="s">
+        <v>147</v>
       </c>
       <c r="B197" t="s">
         <v>101</v>
@@ -5589,8 +5613,8 @@
       </c>
     </row>
     <row r="198" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A198">
-        <v>76</v>
+      <c r="A198" t="s">
+        <v>147</v>
       </c>
       <c r="B198" t="s">
         <v>101</v>
@@ -5613,8 +5637,8 @@
       </c>
     </row>
     <row r="199" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A199">
-        <v>76</v>
+      <c r="A199" t="s">
+        <v>147</v>
       </c>
       <c r="B199" t="s">
         <v>101</v>
@@ -5637,8 +5661,8 @@
       </c>
     </row>
     <row r="200" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A200">
-        <v>76</v>
+      <c r="A200" t="s">
+        <v>147</v>
       </c>
       <c r="B200" t="s">
         <v>101</v>
@@ -5661,8 +5685,8 @@
       </c>
     </row>
     <row r="201" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A201">
-        <v>76</v>
+      <c r="A201" t="s">
+        <v>147</v>
       </c>
       <c r="B201" t="s">
         <v>101</v>
@@ -5685,8 +5709,8 @@
       </c>
     </row>
     <row r="202" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A202">
-        <v>76</v>
+      <c r="A202" t="s">
+        <v>147</v>
       </c>
       <c r="B202" t="s">
         <v>101</v>
@@ -5709,8 +5733,8 @@
       </c>
     </row>
     <row r="203" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A203">
-        <v>76</v>
+      <c r="A203" t="s">
+        <v>147</v>
       </c>
       <c r="B203" t="s">
         <v>101</v>
@@ -5733,8 +5757,8 @@
       </c>
     </row>
     <row r="204" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A204">
-        <v>76</v>
+      <c r="A204" t="s">
+        <v>147</v>
       </c>
       <c r="B204" t="s">
         <v>101</v>
@@ -5757,8 +5781,8 @@
       </c>
     </row>
     <row r="205" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A205">
-        <v>76</v>
+      <c r="A205" t="s">
+        <v>147</v>
       </c>
       <c r="B205" t="s">
         <v>101</v>
@@ -5781,8 +5805,8 @@
       </c>
     </row>
     <row r="206" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A206">
-        <v>76</v>
+      <c r="A206" t="s">
+        <v>147</v>
       </c>
       <c r="B206" t="s">
         <v>101</v>
@@ -5805,8 +5829,8 @@
       </c>
     </row>
     <row r="207" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A207">
-        <v>76</v>
+      <c r="A207" t="s">
+        <v>147</v>
       </c>
       <c r="B207" t="s">
         <v>101</v>
@@ -5829,8 +5853,8 @@
       </c>
     </row>
     <row r="208" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A208">
-        <v>76</v>
+      <c r="A208" t="s">
+        <v>147</v>
       </c>
       <c r="B208" t="s">
         <v>101</v>
@@ -5863,8 +5887,8 @@
       <c r="R208" s="2"/>
     </row>
     <row r="209" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A209">
-        <v>76</v>
+      <c r="A209" t="s">
+        <v>147</v>
       </c>
       <c r="B209" t="s">
         <v>101</v>
@@ -5897,8 +5921,8 @@
       <c r="R209" s="2"/>
     </row>
     <row r="210" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A210">
-        <v>76</v>
+      <c r="A210" t="s">
+        <v>147</v>
       </c>
       <c r="B210" t="s">
         <v>101</v>
@@ -5931,8 +5955,8 @@
       <c r="R210" s="2"/>
     </row>
     <row r="211" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A211">
-        <v>76</v>
+      <c r="A211" t="s">
+        <v>147</v>
       </c>
       <c r="B211" t="s">
         <v>101</v>
@@ -5965,8 +5989,8 @@
       <c r="R211" s="2"/>
     </row>
     <row r="212" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A212">
-        <v>76</v>
+      <c r="A212" t="s">
+        <v>147</v>
       </c>
       <c r="B212" t="s">
         <v>101</v>
@@ -5999,8 +6023,8 @@
       <c r="R212" s="2"/>
     </row>
     <row r="213" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A213">
-        <v>76</v>
+      <c r="A213" t="s">
+        <v>147</v>
       </c>
       <c r="B213" t="s">
         <v>101</v>
@@ -6033,8 +6057,8 @@
       <c r="R213" s="2"/>
     </row>
     <row r="214" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A214">
-        <v>78</v>
+      <c r="A214" t="s">
+        <v>148</v>
       </c>
       <c r="B214" t="s">
         <v>110</v>
@@ -6067,8 +6091,8 @@
       <c r="R214" s="2"/>
     </row>
     <row r="215" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A215">
-        <v>78</v>
+      <c r="A215" t="s">
+        <v>148</v>
       </c>
       <c r="B215" t="s">
         <v>110</v>
@@ -6101,8 +6125,8 @@
       <c r="R215" s="2"/>
     </row>
     <row r="216" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A216">
-        <v>78</v>
+      <c r="A216" t="s">
+        <v>148</v>
       </c>
       <c r="B216" t="s">
         <v>110</v>
@@ -6135,8 +6159,8 @@
       <c r="R216" s="2"/>
     </row>
     <row r="217" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A217">
-        <v>78</v>
+      <c r="A217" t="s">
+        <v>148</v>
       </c>
       <c r="B217" t="s">
         <v>110</v>
@@ -6169,8 +6193,8 @@
       <c r="R217" s="2"/>
     </row>
     <row r="218" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A218">
-        <v>78</v>
+      <c r="A218" t="s">
+        <v>148</v>
       </c>
       <c r="B218" t="s">
         <v>110</v>
@@ -6203,8 +6227,8 @@
       <c r="R218" s="2"/>
     </row>
     <row r="219" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A219">
-        <v>78</v>
+      <c r="A219" t="s">
+        <v>148</v>
       </c>
       <c r="B219" t="s">
         <v>110</v>
@@ -6237,8 +6261,8 @@
       <c r="R219" s="2"/>
     </row>
     <row r="220" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A220">
-        <v>78</v>
+      <c r="A220" t="s">
+        <v>148</v>
       </c>
       <c r="B220" t="s">
         <v>110</v>
@@ -6271,8 +6295,8 @@
       <c r="R220" s="2"/>
     </row>
     <row r="221" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A221">
-        <v>78</v>
+      <c r="A221" t="s">
+        <v>148</v>
       </c>
       <c r="B221" t="s">
         <v>110</v>
@@ -6305,8 +6329,8 @@
       <c r="R221" s="2"/>
     </row>
     <row r="222" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A222">
-        <v>78</v>
+      <c r="A222" t="s">
+        <v>148</v>
       </c>
       <c r="B222" t="s">
         <v>110</v>
@@ -6339,8 +6363,8 @@
       <c r="R222" s="2"/>
     </row>
     <row r="223" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A223">
-        <v>78</v>
+      <c r="A223" t="s">
+        <v>148</v>
       </c>
       <c r="B223" t="s">
         <v>110</v>
@@ -6373,8 +6397,8 @@
       <c r="R223" s="2"/>
     </row>
     <row r="224" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A224">
-        <v>78</v>
+      <c r="A224" t="s">
+        <v>148</v>
       </c>
       <c r="B224" t="s">
         <v>110</v>
@@ -6407,8 +6431,8 @@
       <c r="R224" s="2"/>
     </row>
     <row r="225" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A225">
-        <v>78</v>
+      <c r="A225" t="s">
+        <v>148</v>
       </c>
       <c r="B225" t="s">
         <v>110</v>
@@ -6441,8 +6465,8 @@
       <c r="R225" s="2"/>
     </row>
     <row r="226" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A226">
-        <v>78</v>
+      <c r="A226" t="s">
+        <v>148</v>
       </c>
       <c r="B226" t="s">
         <v>110</v>
@@ -6475,8 +6499,8 @@
       <c r="R226" s="2"/>
     </row>
     <row r="227" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A227">
-        <v>78</v>
+      <c r="A227" t="s">
+        <v>148</v>
       </c>
       <c r="B227" t="s">
         <v>110</v>
@@ -6509,8 +6533,8 @@
       <c r="R227" s="2"/>
     </row>
     <row r="228" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A228">
-        <v>78</v>
+      <c r="A228" t="s">
+        <v>148</v>
       </c>
       <c r="B228" t="s">
         <v>110</v>
@@ -6543,8 +6567,8 @@
       <c r="R228" s="2"/>
     </row>
     <row r="229" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A229">
-        <v>78</v>
+      <c r="A229" t="s">
+        <v>148</v>
       </c>
       <c r="B229" t="s">
         <v>110</v>
@@ -6577,8 +6601,8 @@
       <c r="R229" s="2"/>
     </row>
     <row r="230" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A230">
-        <v>78</v>
+      <c r="A230" t="s">
+        <v>148</v>
       </c>
       <c r="B230" t="s">
         <v>110</v>
@@ -6611,8 +6635,8 @@
       <c r="R230" s="2"/>
     </row>
     <row r="231" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A231">
-        <v>78</v>
+      <c r="A231" t="s">
+        <v>148</v>
       </c>
       <c r="B231" t="s">
         <v>110</v>
@@ -6645,8 +6669,8 @@
       <c r="R231" s="2"/>
     </row>
     <row r="232" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A232">
-        <v>78</v>
+      <c r="A232" t="s">
+        <v>148</v>
       </c>
       <c r="B232" t="s">
         <v>110</v>
@@ -6679,8 +6703,8 @@
       <c r="R232" s="2"/>
     </row>
     <row r="233" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A233">
-        <v>78</v>
+      <c r="A233" t="s">
+        <v>148</v>
       </c>
       <c r="B233" t="s">
         <v>110</v>
@@ -6713,8 +6737,8 @@
       <c r="R233" s="2"/>
     </row>
     <row r="234" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A234">
-        <v>78</v>
+      <c r="A234" t="s">
+        <v>148</v>
       </c>
       <c r="B234" t="s">
         <v>110</v>
@@ -6747,8 +6771,8 @@
       <c r="R234" s="2"/>
     </row>
     <row r="235" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A235">
-        <v>78</v>
+      <c r="A235" t="s">
+        <v>148</v>
       </c>
       <c r="B235" t="s">
         <v>110</v>
@@ -6781,8 +6805,8 @@
       <c r="R235" s="2"/>
     </row>
     <row r="236" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A236">
-        <v>78</v>
+      <c r="A236" t="s">
+        <v>148</v>
       </c>
       <c r="B236" t="s">
         <v>110</v>
@@ -6815,8 +6839,8 @@
       <c r="R236" s="2"/>
     </row>
     <row r="237" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A237">
-        <v>78</v>
+      <c r="A237" t="s">
+        <v>148</v>
       </c>
       <c r="B237" t="s">
         <v>110</v>
@@ -6849,8 +6873,8 @@
       <c r="R237" s="2"/>
     </row>
     <row r="238" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A238">
-        <v>78</v>
+      <c r="A238" t="s">
+        <v>148</v>
       </c>
       <c r="B238" t="s">
         <v>110</v>
@@ -6883,8 +6907,8 @@
       <c r="R238" s="2"/>
     </row>
     <row r="239" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A239">
-        <v>78</v>
+      <c r="A239" t="s">
+        <v>148</v>
       </c>
       <c r="B239" t="s">
         <v>110</v>
@@ -6917,8 +6941,8 @@
       <c r="R239" s="2"/>
     </row>
     <row r="240" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A240">
-        <v>78</v>
+      <c r="A240" t="s">
+        <v>148</v>
       </c>
       <c r="B240" t="s">
         <v>110</v>
@@ -6951,8 +6975,8 @@
       <c r="R240" s="2"/>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A241">
-        <v>78</v>
+      <c r="A241" t="s">
+        <v>148</v>
       </c>
       <c r="B241" t="s">
         <v>110</v>
@@ -6975,8 +6999,8 @@
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A242">
-        <v>78</v>
+      <c r="A242" t="s">
+        <v>148</v>
       </c>
       <c r="B242" t="s">
         <v>110</v>
@@ -6999,8 +7023,8 @@
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A243">
-        <v>78</v>
+      <c r="A243" t="s">
+        <v>148</v>
       </c>
       <c r="B243" t="s">
         <v>110</v>
@@ -7023,8 +7047,8 @@
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A244">
-        <v>78</v>
+      <c r="A244" t="s">
+        <v>148</v>
       </c>
       <c r="B244" t="s">
         <v>110</v>
@@ -7047,8 +7071,8 @@
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A245">
-        <v>78</v>
+      <c r="A245" t="s">
+        <v>148</v>
       </c>
       <c r="B245" t="s">
         <v>110</v>
@@ -7071,6 +7095,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I245" xr:uid="{83B3D47E-06F5-4A10-8434-91675729E215}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/data/timetable_output_table.xlsx
+++ b/data/timetable_output_table.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\herşey\R_projects\GTFS_for_Athens\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C6ED5E-7500-4CCC-927B-9A2D6237FB73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2FC1A1-55E0-4EAA-B333-4AECCC7977FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="morning" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$I$245</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$I$247</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="153">
   <si>
     <t>route_id</t>
   </si>
@@ -480,12 +481,27 @@
   </si>
   <si>
     <t>L7a</t>
+  </si>
+  <si>
+    <t>L3_MonFri_Start</t>
+  </si>
+  <si>
+    <t>L5_MonFri_Start</t>
+  </si>
+  <si>
+    <t>L6_MonFri_Start</t>
+  </si>
+  <si>
+    <t>trip_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -521,10 +537,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -821,10 +839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R245"/>
+  <dimension ref="A1:R247"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView topLeftCell="A166" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A155" sqref="A155:G155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -842,48 +860,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>30</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <f>F2</f>
         <v>30</v>
       </c>
@@ -892,433 +910,433 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>31</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G54" si="0">F3</f>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G44" si="0">F3</f>
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>2</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>4</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>32</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>3</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>5</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>33</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>4</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>6</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>34</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>5</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>7</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>35</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>6</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>8</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>36</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>7</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>9</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>37</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>8</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>10</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>37</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>9</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>11</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>39</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>10</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>12</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>42</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>11</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>13</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>42</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>12</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>14</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>45</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="2">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>13</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>15</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>46</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="2">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>14</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>17</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <v>49</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>15</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>18</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <v>51</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="2">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>16</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>19</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
         <v>54</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="2">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>17</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>20</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <v>56</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="2">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>18</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>21</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
         <v>57</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="2">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
@@ -1327,1722 +1345,1714 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>19</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>22</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="2">
         <v>58</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="2">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>20</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>23</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="2">
         <v>59</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="2">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>21</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>24</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="2">
         <v>0</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>22</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>25</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="2">
         <v>0</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <v>23</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <v>26</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="2">
         <v>2</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>24</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <v>27</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="2">
         <v>2</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="A27" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
         <v>25</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <v>28</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="2">
         <v>3</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
         <v>26</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="2">
         <v>29</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="2">
         <v>4</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
         <v>27</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="2">
         <v>30</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="2">
         <v>5</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2">
         <v>28</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="2">
         <v>31</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="2">
         <v>6</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="A31" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
         <v>29</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="2">
         <v>32</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="2">
         <v>7</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="A32" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
         <v>30</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="2">
         <v>33</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="2">
         <v>8</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
         <v>31</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="2">
         <v>178</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="2">
         <v>9</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="2">
         <v>32</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="2">
         <v>37</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="2">
         <v>12</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="2">
         <v>33</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="2">
         <v>133</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="2">
         <v>13</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="2">
         <v>34</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="2">
         <v>175</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="2">
         <v>13</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="2">
         <v>35</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="2">
         <v>36</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="2">
         <v>14</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="2">
         <v>36</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="2">
         <v>35</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="2">
         <v>15</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="2">
         <v>37</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="2">
         <v>39</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="2">
         <v>16</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="2">
         <v>38</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="2">
         <v>41</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="2">
         <v>19</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="2">
         <v>39</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="2">
         <v>40</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="2">
         <v>20</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="2">
         <v>40</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="2">
         <v>44</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="2">
         <v>20</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="2">
         <v>41</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="2">
         <v>45</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="2">
         <v>20</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="2">
         <v>42</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="2">
         <v>38</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="2">
         <v>22</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+    <row r="45" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="2">
         <v>43</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="2">
         <v>169</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="2">
         <v>23</v>
       </c>
-      <c r="G45">
-        <f t="shared" si="0"/>
+      <c r="G45" s="2">
         <v>23</v>
       </c>
-      <c r="I45" s="2"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="2">
         <v>0</v>
       </c>
-      <c r="D46">
-        <v>116</v>
-      </c>
-      <c r="E46" t="s">
-        <v>47</v>
-      </c>
-      <c r="F46">
-        <v>48</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+      <c r="D46" s="2">
+        <v>1</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="2">
         <v>1</v>
       </c>
-      <c r="D47">
-        <v>64</v>
-      </c>
-      <c r="E47" t="s">
-        <v>48</v>
-      </c>
-      <c r="F47">
-        <v>49</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+      <c r="D47" s="2">
+        <v>3</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="2">
+        <v>1</v>
+      </c>
+      <c r="G47" s="2">
+        <f>F47</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="2">
         <v>2</v>
       </c>
-      <c r="D48">
-        <v>117</v>
-      </c>
-      <c r="E48" t="s">
-        <v>49</v>
-      </c>
-      <c r="F48">
-        <v>51</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>132</v>
+      <c r="D48" s="2">
+        <v>4</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="2">
+        <v>2</v>
+      </c>
+      <c r="G48" s="2">
+        <f t="shared" ref="G48:G121" si="1">F48</f>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="A49" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="2">
         <v>3</v>
       </c>
-      <c r="D49">
-        <v>118</v>
-      </c>
-      <c r="E49" t="s">
-        <v>50</v>
-      </c>
-      <c r="F49">
-        <v>51</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>143</v>
-      </c>
-      <c r="B50" t="s">
-        <v>46</v>
-      </c>
-      <c r="C50">
-        <v>4</v>
-      </c>
-      <c r="D50">
-        <v>119</v>
-      </c>
-      <c r="E50" t="s">
-        <v>51</v>
-      </c>
-      <c r="F50">
-        <v>52</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>143</v>
-      </c>
-      <c r="B51" t="s">
-        <v>46</v>
-      </c>
-      <c r="C51">
+      <c r="D49" s="2">
         <v>5</v>
       </c>
-      <c r="D51">
-        <v>43</v>
-      </c>
-      <c r="E51" t="s">
-        <v>42</v>
-      </c>
-      <c r="F51">
-        <v>53</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>143</v>
-      </c>
-      <c r="B52" t="s">
-        <v>46</v>
-      </c>
-      <c r="C52">
-        <v>6</v>
-      </c>
-      <c r="D52">
-        <v>44</v>
-      </c>
-      <c r="E52" t="s">
-        <v>43</v>
-      </c>
-      <c r="F52">
-        <v>53</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>143</v>
-      </c>
-      <c r="B53" t="s">
-        <v>46</v>
-      </c>
-      <c r="C53">
-        <v>7</v>
-      </c>
-      <c r="D53">
-        <v>45</v>
-      </c>
-      <c r="E53" t="s">
-        <v>39</v>
-      </c>
-      <c r="F53">
-        <v>54</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>143</v>
-      </c>
-      <c r="B54" t="s">
-        <v>46</v>
-      </c>
-      <c r="C54">
-        <v>8</v>
-      </c>
-      <c r="D54">
-        <v>38</v>
-      </c>
-      <c r="E54" t="s">
-        <v>44</v>
-      </c>
-      <c r="F54">
-        <v>56</v>
-      </c>
-      <c r="G54">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>143</v>
-      </c>
-      <c r="B55" t="s">
-        <v>46</v>
-      </c>
-      <c r="C55">
+      <c r="E49" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55" t="s">
-        <v>6</v>
-      </c>
-      <c r="F55">
-        <v>57</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>143</v>
-      </c>
-      <c r="B56" t="s">
-        <v>46</v>
-      </c>
-      <c r="C56">
-        <v>10</v>
-      </c>
-      <c r="D56">
+      <c r="F49" s="2">
         <v>3</v>
       </c>
-      <c r="E56" t="s">
-        <v>7</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-      <c r="G56">
-        <f>F56</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>143</v>
-      </c>
-      <c r="B57" t="s">
-        <v>46</v>
-      </c>
-      <c r="C57">
-        <v>11</v>
-      </c>
-      <c r="D57">
-        <v>4</v>
-      </c>
-      <c r="E57" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57">
-        <v>2</v>
-      </c>
-      <c r="G57">
-        <f t="shared" ref="G57:G120" si="1">F57</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>143</v>
-      </c>
-      <c r="B58" t="s">
-        <v>46</v>
-      </c>
-      <c r="C58">
-        <v>12</v>
-      </c>
-      <c r="D58">
-        <v>5</v>
-      </c>
-      <c r="E58" t="s">
-        <v>9</v>
-      </c>
-      <c r="F58">
-        <v>3</v>
-      </c>
-      <c r="G58">
+      <c r="G49" s="2">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B50" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C59">
-        <v>13</v>
-      </c>
-      <c r="D59">
+      <c r="C50" s="2">
+        <v>4</v>
+      </c>
+      <c r="D50" s="2">
         <v>6</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E50" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F59">
+      <c r="F50" s="2">
         <v>4</v>
       </c>
-      <c r="G59">
+      <c r="G50" s="2">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B51" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C60">
-        <v>14</v>
-      </c>
-      <c r="D60">
+      <c r="C51" s="2">
+        <v>5</v>
+      </c>
+      <c r="D51" s="2">
         <v>7</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E51" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F60">
+      <c r="F51" s="2">
         <v>5</v>
       </c>
-      <c r="G60">
+      <c r="G51" s="2">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B52" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C61">
-        <v>15</v>
-      </c>
-      <c r="D61">
+      <c r="C52" s="2">
+        <v>6</v>
+      </c>
+      <c r="D52" s="2">
         <v>8</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E52" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F61">
+      <c r="F52" s="2">
         <v>6</v>
       </c>
-      <c r="G61">
+      <c r="G52" s="2">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B53" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C62">
-        <v>16</v>
-      </c>
-      <c r="D62">
+      <c r="C53" s="2">
+        <v>7</v>
+      </c>
+      <c r="D53" s="2">
         <v>9</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E53" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F62">
+      <c r="F53" s="2">
         <v>7</v>
       </c>
-      <c r="G62">
+      <c r="G53" s="2">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B54" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C63">
-        <v>17</v>
-      </c>
-      <c r="D63">
+      <c r="C54" s="2">
+        <v>8</v>
+      </c>
+      <c r="D54" s="2">
         <v>10</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E54" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F63">
+      <c r="F54" s="2">
         <v>7</v>
       </c>
-      <c r="G63">
+      <c r="G54" s="2">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B55" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C64">
-        <v>18</v>
-      </c>
-      <c r="D64">
+      <c r="C55" s="2">
+        <v>9</v>
+      </c>
+      <c r="D55" s="2">
         <v>11</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F64">
+      <c r="F55" s="2">
         <v>9</v>
       </c>
-      <c r="G64">
+      <c r="G55" s="2">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B56" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C65">
-        <v>19</v>
-      </c>
-      <c r="D65">
+      <c r="C56" s="2">
+        <v>10</v>
+      </c>
+      <c r="D56" s="2">
         <v>12</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E56" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F65">
+      <c r="F56" s="2">
         <v>12</v>
       </c>
-      <c r="G65">
+      <c r="G56" s="2">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B57" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C66">
-        <v>20</v>
-      </c>
-      <c r="D66">
+      <c r="C57" s="2">
+        <v>11</v>
+      </c>
+      <c r="D57" s="2">
         <v>13</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E57" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F66">
+      <c r="F57" s="2">
         <v>12</v>
       </c>
-      <c r="G66">
+      <c r="G57" s="2">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B58" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C67">
-        <v>21</v>
-      </c>
-      <c r="D67">
+      <c r="C58" s="2">
+        <v>12</v>
+      </c>
+      <c r="D58" s="2">
         <v>14</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E58" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F67">
+      <c r="F58" s="2">
         <v>15</v>
       </c>
-      <c r="G67">
+      <c r="G58" s="2">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B59" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C68">
-        <v>22</v>
-      </c>
-      <c r="D68">
+      <c r="C59" s="2">
+        <v>13</v>
+      </c>
+      <c r="D59" s="2">
         <v>15</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E59" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F68">
+      <c r="F59" s="2">
         <v>24</v>
       </c>
-      <c r="G68">
+      <c r="G59" s="2">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B60" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C69">
-        <v>23</v>
-      </c>
-      <c r="D69">
+      <c r="C60" s="2">
+        <v>14</v>
+      </c>
+      <c r="D60" s="2">
         <v>20</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E60" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F69">
+      <c r="F60" s="2">
         <v>26</v>
       </c>
-      <c r="G69">
+      <c r="G60" s="2">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B61" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C70">
-        <v>24</v>
-      </c>
-      <c r="D70">
+      <c r="C61" s="2">
+        <v>15</v>
+      </c>
+      <c r="D61" s="2">
         <v>21</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E61" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F70">
+      <c r="F61" s="2">
         <v>27</v>
       </c>
-      <c r="G70">
+      <c r="G61" s="2">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="I70" s="1" t="s">
+      <c r="I61" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B62" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C71">
-        <v>25</v>
-      </c>
-      <c r="D71">
+      <c r="C62" s="2">
+        <v>16</v>
+      </c>
+      <c r="D62" s="2">
         <v>22</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E62" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F71">
+      <c r="F62" s="2">
         <v>28</v>
       </c>
-      <c r="G71">
+      <c r="G62" s="2">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B63" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C72">
-        <v>26</v>
-      </c>
-      <c r="D72">
+      <c r="C63" s="2">
+        <v>17</v>
+      </c>
+      <c r="D63" s="2">
         <v>23</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E63" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F72">
+      <c r="F63" s="2">
         <v>29</v>
       </c>
-      <c r="G72">
+      <c r="G63" s="2">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B64" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C73">
-        <v>27</v>
-      </c>
-      <c r="D73">
+      <c r="C64" s="2">
+        <v>18</v>
+      </c>
+      <c r="D64" s="2">
         <v>24</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E64" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F73">
+      <c r="F64" s="2">
         <v>30</v>
       </c>
-      <c r="G73">
+      <c r="G64" s="2">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A65" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B65" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C74">
-        <v>28</v>
-      </c>
-      <c r="D74">
+      <c r="C65" s="2">
+        <v>19</v>
+      </c>
+      <c r="D65" s="2">
         <v>25</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E65" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F74">
+      <c r="F65" s="2">
         <v>30</v>
       </c>
-      <c r="G74">
+      <c r="G65" s="2">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A66" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B66" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C75">
-        <v>29</v>
-      </c>
-      <c r="D75">
+      <c r="C66" s="2">
+        <v>20</v>
+      </c>
+      <c r="D66" s="2">
         <v>26</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E66" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F75">
+      <c r="F66" s="2">
         <v>32</v>
       </c>
-      <c r="G75">
+      <c r="G66" s="2">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B67" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C76">
-        <v>30</v>
-      </c>
-      <c r="D76">
+      <c r="C67" s="2">
+        <v>21</v>
+      </c>
+      <c r="D67" s="2">
         <v>27</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E67" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F76">
+      <c r="F67" s="2">
         <v>32</v>
       </c>
-      <c r="G76">
+      <c r="G67" s="2">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A68" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B68" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C77">
-        <v>31</v>
-      </c>
-      <c r="D77">
+      <c r="C68" s="2">
+        <v>22</v>
+      </c>
+      <c r="D68" s="2">
         <v>28</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E68" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F77">
+      <c r="F68" s="2">
         <v>33</v>
       </c>
-      <c r="G77">
+      <c r="G68" s="2">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A69" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B69" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C78">
-        <v>32</v>
-      </c>
-      <c r="D78">
+      <c r="C69" s="2">
+        <v>23</v>
+      </c>
+      <c r="D69" s="2">
         <v>29</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E69" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F78">
+      <c r="F69" s="2">
         <v>34</v>
       </c>
-      <c r="G78">
+      <c r="G69" s="2">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A70" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B70" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C79">
-        <v>33</v>
-      </c>
-      <c r="D79">
+      <c r="C70" s="2">
+        <v>24</v>
+      </c>
+      <c r="D70" s="2">
         <v>30</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E70" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F79">
+      <c r="F70" s="2">
         <v>35</v>
       </c>
-      <c r="G79">
+      <c r="G70" s="2">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A71" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B71" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C80">
-        <v>34</v>
-      </c>
-      <c r="D80">
+      <c r="C71" s="2">
+        <v>25</v>
+      </c>
+      <c r="D71" s="2">
         <v>31</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E71" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F80">
+      <c r="F71" s="2">
         <v>36</v>
       </c>
-      <c r="G80">
+      <c r="G71" s="2">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A72" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B72" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C81">
-        <v>35</v>
-      </c>
-      <c r="D81">
+      <c r="C72" s="2">
+        <v>26</v>
+      </c>
+      <c r="D72" s="2">
         <v>32</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E72" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F81">
+      <c r="F72" s="2">
         <v>37</v>
       </c>
-      <c r="G81">
+      <c r="G72" s="2">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A73" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B73" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C82">
-        <v>36</v>
-      </c>
-      <c r="D82">
+      <c r="C73" s="2">
+        <v>27</v>
+      </c>
+      <c r="D73" s="2">
         <v>33</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E73" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F82">
+      <c r="F73" s="2">
         <v>38</v>
       </c>
-      <c r="G82">
+      <c r="G73" s="2">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A74" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B74" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C83">
-        <v>37</v>
-      </c>
-      <c r="D83">
+      <c r="C74" s="2">
+        <v>28</v>
+      </c>
+      <c r="D74" s="2">
         <v>178</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E74" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F83">
+      <c r="F74" s="2">
         <v>39</v>
       </c>
-      <c r="G83">
+      <c r="G74" s="2">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B75" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C84">
-        <v>38</v>
-      </c>
-      <c r="D84">
+      <c r="C75" s="2">
+        <v>29</v>
+      </c>
+      <c r="D75" s="2">
         <v>35</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E75" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F84">
+      <c r="F75" s="2">
         <v>41</v>
       </c>
-      <c r="G84">
+      <c r="G75" s="2">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A76" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B76" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C85">
+      <c r="C76" s="2">
+        <v>30</v>
+      </c>
+      <c r="D76" s="2">
         <v>39</v>
       </c>
-      <c r="D85">
-        <v>39</v>
-      </c>
-      <c r="E85" t="s">
+      <c r="E76" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F85">
+      <c r="F76" s="2">
         <v>42</v>
       </c>
-      <c r="G85">
+      <c r="G76" s="2">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A77" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B77" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C86">
+      <c r="C77" s="2">
+        <v>31</v>
+      </c>
+      <c r="D77" s="2">
         <v>40</v>
       </c>
-      <c r="D86">
-        <v>40</v>
-      </c>
-      <c r="E86" t="s">
+      <c r="E77" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F86">
+      <c r="F77" s="2">
         <v>42</v>
       </c>
-      <c r="G86">
+      <c r="G77" s="2">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A78" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B78" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C87">
+      <c r="C78" s="2">
+        <v>32</v>
+      </c>
+      <c r="D78" s="2">
         <v>41</v>
       </c>
-      <c r="D87">
+      <c r="E78" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E87" t="s">
-        <v>41</v>
-      </c>
-      <c r="F87">
+      <c r="F78" s="2">
         <v>44</v>
       </c>
-      <c r="G87">
+      <c r="G78" s="2">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A79" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B79" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C88">
+      <c r="C79" s="2">
+        <v>33</v>
+      </c>
+      <c r="D79" s="2">
         <v>42</v>
       </c>
-      <c r="D88">
-        <v>42</v>
-      </c>
-      <c r="E88" t="s">
+      <c r="E79" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F88">
+      <c r="F79" s="2">
         <v>46</v>
       </c>
-      <c r="G88">
+      <c r="G79" s="2">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A80" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B80" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C89">
-        <v>43</v>
-      </c>
-      <c r="D89">
+      <c r="C80" s="2">
+        <v>34</v>
+      </c>
+      <c r="D80" s="2">
         <v>115</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E80" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F89">
+      <c r="F80" s="2">
         <v>46</v>
       </c>
-      <c r="G89">
+      <c r="G80" s="2">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="I89" s="1" t="s">
+      <c r="I80" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A81" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B81" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C90">
-        <v>44</v>
-      </c>
-      <c r="D90">
+      <c r="C81" s="2">
+        <v>35</v>
+      </c>
+      <c r="D81" s="2">
         <v>141</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E81" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F90">
+      <c r="F81" s="2">
         <v>47</v>
       </c>
-      <c r="G90">
+      <c r="G81" s="2">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="I90" s="1" t="s">
+      <c r="I81" s="1" t="s">
         <v>132</v>
       </c>
     </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A82" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C82" s="2">
+        <v>36</v>
+      </c>
+      <c r="D82" s="2">
+        <v>116</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F82" s="2">
+        <v>48</v>
+      </c>
+      <c r="G82" s="2">
+        <f t="shared" ref="G82:G91" si="2">F82</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A83" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C83" s="2">
+        <v>37</v>
+      </c>
+      <c r="D83" s="2">
+        <v>64</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F83" s="2">
+        <v>49</v>
+      </c>
+      <c r="G83" s="2">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A84" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C84" s="2">
+        <v>38</v>
+      </c>
+      <c r="D84" s="2">
+        <v>117</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F84" s="2">
+        <v>51</v>
+      </c>
+      <c r="G84" s="2">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A85" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C85" s="2">
+        <v>39</v>
+      </c>
+      <c r="D85" s="2">
+        <v>118</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F85" s="2">
+        <v>51</v>
+      </c>
+      <c r="G85" s="2">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A86" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C86" s="2">
+        <v>40</v>
+      </c>
+      <c r="D86" s="2">
+        <v>119</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F86" s="2">
+        <v>52</v>
+      </c>
+      <c r="G86" s="2">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A87" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C87" s="2">
+        <v>41</v>
+      </c>
+      <c r="D87" s="2">
+        <v>43</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F87" s="2">
+        <v>53</v>
+      </c>
+      <c r="G87" s="2">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A88" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C88" s="2">
+        <v>42</v>
+      </c>
+      <c r="D88" s="2">
+        <v>44</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F88" s="2">
+        <v>53</v>
+      </c>
+      <c r="G88" s="2">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A89" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C89" s="2">
+        <v>43</v>
+      </c>
+      <c r="D89" s="2">
+        <v>45</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F89" s="2">
+        <v>54</v>
+      </c>
+      <c r="G89" s="2">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A90" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C90" s="2">
+        <v>44</v>
+      </c>
+      <c r="D90" s="2">
+        <v>38</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" s="2">
+        <v>56</v>
+      </c>
+      <c r="G90" s="2">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+    </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>144</v>
-      </c>
-      <c r="B91" t="s">
-        <v>52</v>
-      </c>
-      <c r="C91">
-        <v>0</v>
-      </c>
-      <c r="D91">
-        <v>95</v>
-      </c>
-      <c r="E91" t="s">
-        <v>53</v>
-      </c>
-      <c r="F91">
+      <c r="A91" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C91" s="2">
         <v>45</v>
       </c>
-      <c r="G91">
-        <f t="shared" si="1"/>
+      <c r="D91" s="2">
+        <v>169</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>45</v>
+      </c>
+      <c r="F91" s="2">
+        <v>57</v>
+      </c>
+      <c r="G91" s="2">
+        <f t="shared" si="2"/>
+        <v>57</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
@@ -3053,20 +3063,20 @@
         <v>52</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D92">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E92" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F92">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G92">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
@@ -3077,20 +3087,20 @@
         <v>52</v>
       </c>
       <c r="C93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D93">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="E93" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F93">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G93">
         <f t="shared" si="1"/>
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
@@ -3101,20 +3111,20 @@
         <v>52</v>
       </c>
       <c r="C94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E94" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F94">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G94">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
@@ -3125,20 +3135,20 @@
         <v>52</v>
       </c>
       <c r="C95">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="E95" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F95">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G95">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
@@ -3149,20 +3159,20 @@
         <v>52</v>
       </c>
       <c r="C96">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E96" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F96">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G96">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
@@ -3173,20 +3183,20 @@
         <v>52</v>
       </c>
       <c r="C97">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D97">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E97" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F97">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G97">
         <f t="shared" si="1"/>
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
@@ -3197,20 +3207,20 @@
         <v>52</v>
       </c>
       <c r="C98">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D98">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E98" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F98">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G98">
         <f t="shared" si="1"/>
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
@@ -3221,20 +3231,20 @@
         <v>52</v>
       </c>
       <c r="C99">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D99">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E99" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F99">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G99">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
@@ -3245,20 +3255,20 @@
         <v>52</v>
       </c>
       <c r="C100">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D100">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E100" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F100">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G100">
         <f t="shared" si="1"/>
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
@@ -3269,20 +3279,20 @@
         <v>52</v>
       </c>
       <c r="C101">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D101">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E101" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="G101">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
@@ -3293,13 +3303,13 @@
         <v>52</v>
       </c>
       <c r="C102">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D102">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E102" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -3317,20 +3327,20 @@
         <v>52</v>
       </c>
       <c r="C103">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D103">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E103" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G103">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
@@ -3341,20 +3351,20 @@
         <v>52</v>
       </c>
       <c r="C104">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D104">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="E104" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="F104">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G104">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
@@ -3365,20 +3375,20 @@
         <v>52</v>
       </c>
       <c r="C105">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D105">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F105">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G105">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
@@ -3389,20 +3399,20 @@
         <v>52</v>
       </c>
       <c r="C106">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D106">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E106" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F106">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G106">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
@@ -3413,20 +3423,20 @@
         <v>52</v>
       </c>
       <c r="C107">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D107">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E107" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F107">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G107">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
@@ -3437,20 +3447,20 @@
         <v>52</v>
       </c>
       <c r="C108">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D108">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E108" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F108">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G108">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
@@ -3461,19 +3471,20 @@
         <v>52</v>
       </c>
       <c r="C109">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D109">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E109" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F109">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G109">
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
@@ -3484,20 +3495,19 @@
         <v>52</v>
       </c>
       <c r="C110">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D110">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E110" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F110">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G110">
-        <f t="shared" si="1"/>
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
@@ -3508,13 +3518,13 @@
         <v>52</v>
       </c>
       <c r="C111">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D111">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E111" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F111">
         <v>22</v>
@@ -3532,20 +3542,20 @@
         <v>52</v>
       </c>
       <c r="C112">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D112">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E112" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F112">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G112">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
@@ -3556,20 +3566,20 @@
         <v>52</v>
       </c>
       <c r="C113">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D113">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E113" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F113">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G113">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
@@ -3580,13 +3590,13 @@
         <v>52</v>
       </c>
       <c r="C114">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D114">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E114" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F114">
         <v>24</v>
@@ -3604,20 +3614,20 @@
         <v>52</v>
       </c>
       <c r="C115">
+        <v>23</v>
+      </c>
+      <c r="D115">
+        <v>25</v>
+      </c>
+      <c r="E115" t="s">
+        <v>27</v>
+      </c>
+      <c r="F115">
         <v>24</v>
-      </c>
-      <c r="D115">
-        <v>55</v>
-      </c>
-      <c r="E115" t="s">
-        <v>66</v>
-      </c>
-      <c r="F115">
-        <v>26</v>
       </c>
       <c r="G115">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.35">
@@ -3628,20 +3638,20 @@
         <v>52</v>
       </c>
       <c r="C116">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D116">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E116" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F116">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G116">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.35">
@@ -3652,13 +3662,13 @@
         <v>52</v>
       </c>
       <c r="C117">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D117">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E117" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F117">
         <v>27</v>
@@ -3676,20 +3686,20 @@
         <v>52</v>
       </c>
       <c r="C118">
+        <v>26</v>
+      </c>
+      <c r="D118">
+        <v>57</v>
+      </c>
+      <c r="E118" t="s">
+        <v>68</v>
+      </c>
+      <c r="F118">
         <v>27</v>
-      </c>
-      <c r="D118">
-        <v>58</v>
-      </c>
-      <c r="E118" t="s">
-        <v>69</v>
-      </c>
-      <c r="F118">
-        <v>28</v>
       </c>
       <c r="G118">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.35">
@@ -3700,20 +3710,20 @@
         <v>52</v>
       </c>
       <c r="C119">
+        <v>27</v>
+      </c>
+      <c r="D119">
+        <v>58</v>
+      </c>
+      <c r="E119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F119">
         <v>28</v>
-      </c>
-      <c r="D119">
-        <v>59</v>
-      </c>
-      <c r="E119" t="s">
-        <v>70</v>
-      </c>
-      <c r="F119">
-        <v>29</v>
       </c>
       <c r="G119">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.35">
@@ -3724,20 +3734,20 @@
         <v>52</v>
       </c>
       <c r="C120">
+        <v>28</v>
+      </c>
+      <c r="D120">
+        <v>59</v>
+      </c>
+      <c r="E120" t="s">
+        <v>70</v>
+      </c>
+      <c r="F120">
         <v>29</v>
-      </c>
-      <c r="D120">
-        <v>60</v>
-      </c>
-      <c r="E120" t="s">
-        <v>71</v>
-      </c>
-      <c r="F120">
-        <v>30</v>
       </c>
       <c r="G120">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.35">
@@ -3748,20 +3758,20 @@
         <v>52</v>
       </c>
       <c r="C121">
+        <v>29</v>
+      </c>
+      <c r="D121">
+        <v>60</v>
+      </c>
+      <c r="E121" t="s">
+        <v>71</v>
+      </c>
+      <c r="F121">
         <v>30</v>
       </c>
-      <c r="D121">
-        <v>61</v>
-      </c>
-      <c r="E121" t="s">
-        <v>59</v>
-      </c>
-      <c r="F121">
-        <v>31</v>
-      </c>
       <c r="G121">
-        <f t="shared" ref="G121:G184" si="2">F121</f>
-        <v>31</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.35">
@@ -3772,19 +3782,19 @@
         <v>52</v>
       </c>
       <c r="C122">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D122">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E122" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F122">
         <v>31</v>
       </c>
       <c r="G122">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G122:G186" si="3">F122</f>
         <v>31</v>
       </c>
     </row>
@@ -3796,20 +3806,20 @@
         <v>52</v>
       </c>
       <c r="C123">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D123">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E123" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F123">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G123">
-        <f t="shared" si="2"/>
-        <v>32</v>
+        <f t="shared" si="3"/>
+        <v>31</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.35">
@@ -3820,23 +3830,20 @@
         <v>52</v>
       </c>
       <c r="C124">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D124">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="E124" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="F124">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G124">
-        <f t="shared" si="2"/>
-        <v>37</v>
-      </c>
-      <c r="I124" s="1" t="s">
-        <v>134</v>
+        <f t="shared" si="3"/>
+        <v>32</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.35">
@@ -3847,20 +3854,23 @@
         <v>52</v>
       </c>
       <c r="C125">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D125">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E125" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F125">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G125">
-        <f t="shared" si="2"/>
-        <v>38</v>
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.35">
@@ -3871,720 +3881,719 @@
         <v>52</v>
       </c>
       <c r="C126">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D126">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="E126" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="F126">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G126">
-        <f t="shared" si="2"/>
-        <v>41</v>
+        <f t="shared" si="3"/>
+        <v>38</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
+        <v>144</v>
+      </c>
+      <c r="B127" t="s">
+        <v>52</v>
+      </c>
+      <c r="C127">
+        <v>35</v>
+      </c>
+      <c r="D127">
+        <v>182</v>
+      </c>
+      <c r="E127" t="s">
+        <v>133</v>
+      </c>
+      <c r="F127">
+        <v>41</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A128" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B128" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C127">
+      <c r="C128" s="2">
         <v>0</v>
       </c>
-      <c r="D127">
+      <c r="D128" s="2">
+        <v>1</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F128" s="2">
+        <v>32</v>
+      </c>
+      <c r="G128" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A129" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C129" s="2">
+        <v>1</v>
+      </c>
+      <c r="D129" s="2">
+        <v>3</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F129" s="2">
+        <v>33</v>
+      </c>
+      <c r="G129" s="2">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A130" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C130" s="2">
+        <v>2</v>
+      </c>
+      <c r="D130" s="2">
+        <v>4</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F130" s="2">
+        <v>35</v>
+      </c>
+      <c r="G130" s="2">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A131" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C131" s="2">
+        <v>3</v>
+      </c>
+      <c r="D131" s="2">
+        <v>5</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F131" s="2">
+        <v>36</v>
+      </c>
+      <c r="G131" s="2">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A132" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C132" s="2">
+        <v>4</v>
+      </c>
+      <c r="D132" s="2">
+        <v>65</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F132" s="2">
+        <v>37</v>
+      </c>
+      <c r="G132" s="2">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A133" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C133" s="2">
+        <v>5</v>
+      </c>
+      <c r="D133" s="2">
+        <v>66</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F133" s="2">
+        <v>38</v>
+      </c>
+      <c r="G133" s="2">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A134" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C134" s="2">
+        <v>6</v>
+      </c>
+      <c r="D134" s="2">
+        <v>67</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F134" s="2">
+        <v>39</v>
+      </c>
+      <c r="G134" s="2">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A135" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C135" s="2">
+        <v>7</v>
+      </c>
+      <c r="D135" s="2">
+        <v>68</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E127" t="s">
+      <c r="F135" s="2">
+        <v>40</v>
+      </c>
+      <c r="G135" s="2">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A136" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C136" s="2">
+        <v>8</v>
+      </c>
+      <c r="D136" s="2">
+        <v>69</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F136" s="2">
+        <v>41</v>
+      </c>
+      <c r="G136" s="2">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A137" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C137" s="2">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2">
+        <v>70</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F137" s="2">
+        <v>42</v>
+      </c>
+      <c r="G137" s="2">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A138" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C138" s="2">
+        <v>10</v>
+      </c>
+      <c r="D138" s="2">
+        <v>71</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F138" s="2">
+        <v>42</v>
+      </c>
+      <c r="G138" s="2">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A139" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C139" s="2">
+        <v>11</v>
+      </c>
+      <c r="D139" s="2">
+        <v>72</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F139" s="2">
+        <v>48</v>
+      </c>
+      <c r="G139" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A140" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C140" s="2">
+        <v>12</v>
+      </c>
+      <c r="D140" s="2">
+        <v>73</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F140" s="2">
+        <v>0</v>
+      </c>
+      <c r="G140" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A141" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C141" s="2">
+        <v>13</v>
+      </c>
+      <c r="D141" s="2">
+        <v>74</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F141" s="2">
+        <v>2</v>
+      </c>
+      <c r="G141" s="2">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A142" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C142" s="2">
+        <v>14</v>
+      </c>
+      <c r="D142" s="2">
         <v>75</v>
       </c>
-      <c r="F127">
+      <c r="E142" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F142" s="2">
+        <v>4</v>
+      </c>
+      <c r="G142" s="2">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A143" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C143" s="2">
+        <v>15</v>
+      </c>
+      <c r="D143" s="2">
+        <v>76</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F143" s="2">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A144" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C144" s="2">
+        <v>16</v>
+      </c>
+      <c r="D144" s="2">
+        <v>77</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F144" s="2">
+        <v>13</v>
+      </c>
+      <c r="G144" s="2">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A145" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C145" s="2">
+        <v>17</v>
+      </c>
+      <c r="D145" s="2">
+        <v>78</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F145" s="2">
+        <v>13</v>
+      </c>
+      <c r="G145" s="2">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A146" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C146" s="2">
+        <v>18</v>
+      </c>
+      <c r="D146" s="2">
+        <v>79</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F146" s="2">
+        <v>16</v>
+      </c>
+      <c r="G146" s="2">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A147" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C147" s="2">
+        <v>19</v>
+      </c>
+      <c r="D147" s="2">
+        <v>80</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F147" s="2">
+        <v>18</v>
+      </c>
+      <c r="G147" s="2">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A148" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C148" s="2">
         <v>20</v>
       </c>
-      <c r="G127">
-        <f t="shared" si="2"/>
+      <c r="D148" s="2">
+        <v>81</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F148" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
+      <c r="G148" s="2">
+        <f t="shared" ref="G148:G153" si="4">F148</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A149" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B149" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C128">
+      <c r="C149" s="2">
+        <v>21</v>
+      </c>
+      <c r="D149" s="2">
+        <v>82</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F149" s="2">
+        <v>22</v>
+      </c>
+      <c r="G149" s="2">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A150" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C150" s="2">
+        <v>22</v>
+      </c>
+      <c r="D150" s="2">
+        <v>83</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F150" s="2">
+        <v>23</v>
+      </c>
+      <c r="G150" s="2">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A151" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C151" s="2">
+        <v>23</v>
+      </c>
+      <c r="D151" s="2">
+        <v>84</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F151" s="2">
+        <v>23</v>
+      </c>
+      <c r="G151" s="2">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A152" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C152" s="2">
+        <v>24</v>
+      </c>
+      <c r="D152" s="2">
+        <v>85</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F152" s="2">
+        <v>24</v>
+      </c>
+      <c r="G152" s="2">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A153" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C153" s="2">
+        <v>25</v>
+      </c>
+      <c r="D153" s="2">
+        <v>33</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F153" s="2">
+        <v>25</v>
+      </c>
+      <c r="G153" s="2">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A154" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C154" s="2">
+        <v>26</v>
+      </c>
+      <c r="D154" s="2">
         <v>1</v>
       </c>
-      <c r="D128">
-        <v>82</v>
-      </c>
-      <c r="E128" t="s">
-        <v>55</v>
-      </c>
-      <c r="F128">
-        <v>22</v>
-      </c>
-      <c r="G128">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
-        <v>145</v>
-      </c>
-      <c r="B129" t="s">
-        <v>74</v>
-      </c>
-      <c r="C129">
+      <c r="E154" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F154" s="2">
+        <v>26</v>
+      </c>
+      <c r="G154" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A155" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C155" s="2">
+        <v>0</v>
+      </c>
+      <c r="D155" s="2">
+        <v>1</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F155" s="2">
         <v>2</v>
       </c>
-      <c r="D129">
-        <v>83</v>
-      </c>
-      <c r="E129" t="s">
-        <v>56</v>
-      </c>
-      <c r="F129">
-        <v>23</v>
-      </c>
-      <c r="G129">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
-        <v>145</v>
-      </c>
-      <c r="B130" t="s">
-        <v>74</v>
-      </c>
-      <c r="C130">
-        <v>3</v>
-      </c>
-      <c r="D130">
-        <v>84</v>
-      </c>
-      <c r="E130" t="s">
-        <v>76</v>
-      </c>
-      <c r="F130">
-        <v>23</v>
-      </c>
-      <c r="G130">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
-        <v>145</v>
-      </c>
-      <c r="B131" t="s">
-        <v>74</v>
-      </c>
-      <c r="C131">
-        <v>4</v>
-      </c>
-      <c r="D131">
-        <v>85</v>
-      </c>
-      <c r="E131" t="s">
-        <v>77</v>
-      </c>
-      <c r="F131">
-        <v>24</v>
-      </c>
-      <c r="G131">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
-        <v>145</v>
-      </c>
-      <c r="B132" t="s">
-        <v>74</v>
-      </c>
-      <c r="C132">
-        <v>5</v>
-      </c>
-      <c r="D132">
-        <v>33</v>
-      </c>
-      <c r="E132" t="s">
-        <v>33</v>
-      </c>
-      <c r="F132">
-        <v>25</v>
-      </c>
-      <c r="G132">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
-        <v>145</v>
-      </c>
-      <c r="B133" t="s">
-        <v>74</v>
-      </c>
-      <c r="C133">
-        <v>6</v>
-      </c>
-      <c r="D133">
-        <v>1</v>
-      </c>
-      <c r="E133" t="s">
-        <v>6</v>
-      </c>
-      <c r="F133">
-        <v>26</v>
-      </c>
-      <c r="G133">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
-        <v>145</v>
-      </c>
-      <c r="B134" t="s">
-        <v>74</v>
-      </c>
-      <c r="C134">
-        <v>7</v>
-      </c>
-      <c r="D134">
-        <v>3</v>
-      </c>
-      <c r="E134" t="s">
-        <v>7</v>
-      </c>
-      <c r="F134">
-        <v>33</v>
-      </c>
-      <c r="G134">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
-        <v>145</v>
-      </c>
-      <c r="B135" t="s">
-        <v>74</v>
-      </c>
-      <c r="C135">
-        <v>8</v>
-      </c>
-      <c r="D135">
-        <v>4</v>
-      </c>
-      <c r="E135" t="s">
-        <v>8</v>
-      </c>
-      <c r="F135">
-        <v>35</v>
-      </c>
-      <c r="G135">
-        <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
-        <v>145</v>
-      </c>
-      <c r="B136" t="s">
-        <v>74</v>
-      </c>
-      <c r="C136">
-        <v>9</v>
-      </c>
-      <c r="D136">
-        <v>5</v>
-      </c>
-      <c r="E136" t="s">
-        <v>9</v>
-      </c>
-      <c r="F136">
-        <v>36</v>
-      </c>
-      <c r="G136">
-        <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
-        <v>145</v>
-      </c>
-      <c r="B137" t="s">
-        <v>74</v>
-      </c>
-      <c r="C137">
-        <v>10</v>
-      </c>
-      <c r="D137">
-        <v>65</v>
-      </c>
-      <c r="E137" t="s">
-        <v>78</v>
-      </c>
-      <c r="F137">
-        <v>37</v>
-      </c>
-      <c r="G137">
-        <f t="shared" si="2"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
-        <v>145</v>
-      </c>
-      <c r="B138" t="s">
-        <v>74</v>
-      </c>
-      <c r="C138">
-        <v>11</v>
-      </c>
-      <c r="D138">
-        <v>66</v>
-      </c>
-      <c r="E138" t="s">
-        <v>79</v>
-      </c>
-      <c r="F138">
-        <v>38</v>
-      </c>
-      <c r="G138">
-        <f t="shared" si="2"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
-        <v>145</v>
-      </c>
-      <c r="B139" t="s">
-        <v>74</v>
-      </c>
-      <c r="C139">
-        <v>12</v>
-      </c>
-      <c r="D139">
-        <v>67</v>
-      </c>
-      <c r="E139" t="s">
-        <v>80</v>
-      </c>
-      <c r="F139">
-        <v>39</v>
-      </c>
-      <c r="G139">
-        <f t="shared" si="2"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
-        <v>145</v>
-      </c>
-      <c r="B140" t="s">
-        <v>74</v>
-      </c>
-      <c r="C140">
-        <v>13</v>
-      </c>
-      <c r="D140">
-        <v>68</v>
-      </c>
-      <c r="E140" t="s">
-        <v>81</v>
-      </c>
-      <c r="F140">
-        <v>40</v>
-      </c>
-      <c r="G140">
-        <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
-        <v>145</v>
-      </c>
-      <c r="B141" t="s">
-        <v>74</v>
-      </c>
-      <c r="C141">
-        <v>14</v>
-      </c>
-      <c r="D141">
-        <v>69</v>
-      </c>
-      <c r="E141" t="s">
-        <v>82</v>
-      </c>
-      <c r="F141">
-        <v>41</v>
-      </c>
-      <c r="G141">
-        <f t="shared" si="2"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
-        <v>145</v>
-      </c>
-      <c r="B142" t="s">
-        <v>74</v>
-      </c>
-      <c r="C142">
-        <v>15</v>
-      </c>
-      <c r="D142">
-        <v>70</v>
-      </c>
-      <c r="E142" t="s">
-        <v>83</v>
-      </c>
-      <c r="F142">
-        <v>42</v>
-      </c>
-      <c r="G142">
-        <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
-        <v>145</v>
-      </c>
-      <c r="B143" t="s">
-        <v>74</v>
-      </c>
-      <c r="C143">
-        <v>16</v>
-      </c>
-      <c r="D143">
-        <v>71</v>
-      </c>
-      <c r="E143" t="s">
-        <v>84</v>
-      </c>
-      <c r="F143">
-        <v>42</v>
-      </c>
-      <c r="G143">
-        <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
-      <c r="I143" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
-        <v>145</v>
-      </c>
-      <c r="B144" t="s">
-        <v>74</v>
-      </c>
-      <c r="C144">
-        <v>17</v>
-      </c>
-      <c r="D144">
-        <v>72</v>
-      </c>
-      <c r="E144" t="s">
-        <v>85</v>
-      </c>
-      <c r="F144">
-        <v>48</v>
-      </c>
-      <c r="G144">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
-        <v>145</v>
-      </c>
-      <c r="B145" t="s">
-        <v>74</v>
-      </c>
-      <c r="C145">
-        <v>18</v>
-      </c>
-      <c r="D145">
-        <v>73</v>
-      </c>
-      <c r="E145" t="s">
-        <v>86</v>
-      </c>
-      <c r="F145">
-        <v>0</v>
-      </c>
-      <c r="G145">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
-        <v>145</v>
-      </c>
-      <c r="B146" t="s">
-        <v>74</v>
-      </c>
-      <c r="C146">
-        <v>19</v>
-      </c>
-      <c r="D146">
-        <v>74</v>
-      </c>
-      <c r="E146" t="s">
-        <v>87</v>
-      </c>
-      <c r="F146">
+      <c r="G155" s="2">
+        <f t="shared" si="3"/>
         <v>2</v>
-      </c>
-      <c r="G146">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="I146" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
-        <v>145</v>
-      </c>
-      <c r="B147" t="s">
-        <v>74</v>
-      </c>
-      <c r="C147">
-        <v>20</v>
-      </c>
-      <c r="D147">
-        <v>75</v>
-      </c>
-      <c r="E147" t="s">
-        <v>88</v>
-      </c>
-      <c r="F147">
-        <v>4</v>
-      </c>
-      <c r="G147">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
-        <v>145</v>
-      </c>
-      <c r="B148" t="s">
-        <v>74</v>
-      </c>
-      <c r="C148">
-        <v>21</v>
-      </c>
-      <c r="D148">
-        <v>76</v>
-      </c>
-      <c r="E148" t="s">
-        <v>93</v>
-      </c>
-      <c r="F148">
-        <v>10</v>
-      </c>
-      <c r="G148">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
-        <v>145</v>
-      </c>
-      <c r="B149" t="s">
-        <v>74</v>
-      </c>
-      <c r="C149">
-        <v>22</v>
-      </c>
-      <c r="D149">
-        <v>77</v>
-      </c>
-      <c r="E149" t="s">
-        <v>89</v>
-      </c>
-      <c r="F149">
-        <v>13</v>
-      </c>
-      <c r="G149">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A150" t="s">
-        <v>145</v>
-      </c>
-      <c r="B150" t="s">
-        <v>74</v>
-      </c>
-      <c r="C150">
-        <v>23</v>
-      </c>
-      <c r="D150">
-        <v>78</v>
-      </c>
-      <c r="E150" t="s">
-        <v>90</v>
-      </c>
-      <c r="F150">
-        <v>13</v>
-      </c>
-      <c r="G150">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
-        <v>145</v>
-      </c>
-      <c r="B151" t="s">
-        <v>74</v>
-      </c>
-      <c r="C151">
-        <v>24</v>
-      </c>
-      <c r="D151">
-        <v>79</v>
-      </c>
-      <c r="E151" t="s">
-        <v>91</v>
-      </c>
-      <c r="F151">
-        <v>16</v>
-      </c>
-      <c r="G151">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A152" t="s">
-        <v>145</v>
-      </c>
-      <c r="B152" t="s">
-        <v>74</v>
-      </c>
-      <c r="C152">
-        <v>25</v>
-      </c>
-      <c r="D152">
-        <v>80</v>
-      </c>
-      <c r="E152" t="s">
-        <v>92</v>
-      </c>
-      <c r="F152">
-        <v>18</v>
-      </c>
-      <c r="G152">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
-        <v>146</v>
-      </c>
-      <c r="B153" t="s">
-        <v>94</v>
-      </c>
-      <c r="C153">
-        <v>0</v>
-      </c>
-      <c r="D153">
-        <v>1</v>
-      </c>
-      <c r="E153" t="s">
-        <v>6</v>
-      </c>
-      <c r="F153">
-        <v>2</v>
-      </c>
-      <c r="G153">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
-        <v>146</v>
-      </c>
-      <c r="B154" t="s">
-        <v>94</v>
-      </c>
-      <c r="C154">
-        <v>1</v>
-      </c>
-      <c r="D154">
-        <v>3</v>
-      </c>
-      <c r="E154" t="s">
-        <v>7</v>
-      </c>
-      <c r="F154">
-        <v>3</v>
-      </c>
-      <c r="G154">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
-        <v>146</v>
-      </c>
-      <c r="B155" t="s">
-        <v>94</v>
-      </c>
-      <c r="C155">
-        <v>2</v>
-      </c>
-      <c r="D155">
-        <v>4</v>
-      </c>
-      <c r="E155" t="s">
-        <v>8</v>
-      </c>
-      <c r="F155">
-        <v>5</v>
-      </c>
-      <c r="G155">
-        <f t="shared" si="2"/>
-        <v>5</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.35">
@@ -4595,20 +4604,20 @@
         <v>94</v>
       </c>
       <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156">
         <v>3</v>
       </c>
-      <c r="D156">
-        <v>5</v>
-      </c>
       <c r="E156" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F156">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G156">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.35">
@@ -4619,20 +4628,20 @@
         <v>94</v>
       </c>
       <c r="C157">
+        <v>2</v>
+      </c>
+      <c r="D157">
         <v>4</v>
       </c>
-      <c r="D157">
-        <v>30</v>
-      </c>
       <c r="E157" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F157">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G157">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.35">
@@ -4643,23 +4652,20 @@
         <v>94</v>
       </c>
       <c r="C158">
+        <v>3</v>
+      </c>
+      <c r="D158">
         <v>5</v>
       </c>
-      <c r="D158">
-        <v>92</v>
-      </c>
       <c r="E158" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="F158">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G158">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="I158" s="1" t="s">
-        <v>137</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.35">
@@ -4670,20 +4676,20 @@
         <v>94</v>
       </c>
       <c r="C159">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D159">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="E159" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="F159">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G159">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.35">
@@ -4694,20 +4700,23 @@
         <v>94</v>
       </c>
       <c r="C160">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D160">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E160" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F160">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G160">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.35">
@@ -4718,20 +4727,20 @@
         <v>94</v>
       </c>
       <c r="C161">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D161">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E161" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="F161">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G161">
-        <f t="shared" si="2"/>
-        <v>11</v>
+        <f t="shared" si="3"/>
+        <v>9</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.35">
@@ -4742,20 +4751,20 @@
         <v>94</v>
       </c>
       <c r="C162">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D162">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E162" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="F162">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G162">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.35">
@@ -4766,20 +4775,20 @@
         <v>94</v>
       </c>
       <c r="C163">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D163">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="E163" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F163">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G163">
-        <f t="shared" si="2"/>
-        <v>13</v>
+        <f t="shared" si="3"/>
+        <v>11</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.35">
@@ -4790,20 +4799,20 @@
         <v>94</v>
       </c>
       <c r="C164">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D164">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="E164" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F164">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G164">
-        <f t="shared" si="2"/>
-        <v>14</v>
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.35">
@@ -4814,20 +4823,20 @@
         <v>94</v>
       </c>
       <c r="C165">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D165">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="E165" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="F165">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G165">
-        <f t="shared" si="2"/>
-        <v>15</v>
+        <f t="shared" si="3"/>
+        <v>13</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.35">
@@ -4838,20 +4847,20 @@
         <v>94</v>
       </c>
       <c r="C166">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D166">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E166" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="F166">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G166">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.35">
@@ -4862,20 +4871,20 @@
         <v>94</v>
       </c>
       <c r="C167">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D167">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E167" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F167">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G167">
-        <f t="shared" si="2"/>
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.35">
@@ -4886,20 +4895,20 @@
         <v>94</v>
       </c>
       <c r="C168">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D168">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="E168" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F168">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G168">
-        <f t="shared" si="2"/>
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>18</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.35">
@@ -4910,20 +4919,20 @@
         <v>94</v>
       </c>
       <c r="C169">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D169">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="E169" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F169">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G169">
-        <f t="shared" si="2"/>
-        <v>23</v>
+        <f t="shared" si="3"/>
+        <v>20</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.35">
@@ -4934,23 +4943,20 @@
         <v>94</v>
       </c>
       <c r="C170">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D170">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E170" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F170">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G170">
-        <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="I170" s="1" t="s">
-        <v>136</v>
+        <f t="shared" si="3"/>
+        <v>20</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.35">
@@ -4961,19 +4967,20 @@
         <v>94</v>
       </c>
       <c r="C171">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D171">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E171" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="F171">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G171">
-        <v>33</v>
+        <f t="shared" si="3"/>
+        <v>23</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.35">
@@ -4984,20 +4991,23 @@
         <v>94</v>
       </c>
       <c r="C172">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D172">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E172" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F172">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G172">
-        <f t="shared" si="2"/>
-        <v>35</v>
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.35">
@@ -5008,23 +5018,19 @@
         <v>94</v>
       </c>
       <c r="C173">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D173">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="E173" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F173">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G173">
-        <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="I173" s="1" t="s">
-        <v>138</v>
+        <v>33</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.35">
@@ -5035,23 +5041,20 @@
         <v>94</v>
       </c>
       <c r="C174">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D174">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E174" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F174">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G174">
-        <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="I174" s="1" t="s">
-        <v>139</v>
+        <f t="shared" si="3"/>
+        <v>35</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.35">
@@ -5062,23 +5065,23 @@
         <v>94</v>
       </c>
       <c r="C175">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D175">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E175" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F175">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G175">
-        <f t="shared" si="2"/>
-        <v>42</v>
+        <f t="shared" si="3"/>
+        <v>36</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.35">
@@ -5089,20 +5092,23 @@
         <v>94</v>
       </c>
       <c r="C176">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D176">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E176" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F176">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G176">
-        <f t="shared" si="2"/>
-        <v>44</v>
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="I176" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.35">
@@ -5113,20 +5119,23 @@
         <v>94</v>
       </c>
       <c r="C177">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D177">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E177" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="F177">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G177">
-        <f t="shared" si="2"/>
-        <v>49</v>
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.35">
@@ -5137,20 +5146,20 @@
         <v>94</v>
       </c>
       <c r="C178">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D178">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E178" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="F178">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G178">
-        <f t="shared" si="2"/>
-        <v>49</v>
+        <f t="shared" si="3"/>
+        <v>44</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.35">
@@ -5161,20 +5170,20 @@
         <v>94</v>
       </c>
       <c r="C179">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D179">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E179" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F179">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G179">
-        <f t="shared" si="2"/>
-        <v>50</v>
+        <f t="shared" si="3"/>
+        <v>49</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.35">
@@ -5185,23 +5194,20 @@
         <v>94</v>
       </c>
       <c r="C180">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D180">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E180" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F180">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G180">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="I180" s="1" t="s">
-        <v>141</v>
+        <f t="shared" si="3"/>
+        <v>49</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.35">
@@ -5212,20 +5218,20 @@
         <v>94</v>
       </c>
       <c r="C181">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D181">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E181" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F181">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G181">
-        <f t="shared" si="2"/>
-        <v>51</v>
+        <f t="shared" si="3"/>
+        <v>50</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.35">
@@ -5236,20 +5242,23 @@
         <v>94</v>
       </c>
       <c r="C182">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D182">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E182" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F182">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G182">
-        <f t="shared" si="2"/>
-        <v>52</v>
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="I182" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.35">
@@ -5260,20 +5269,20 @@
         <v>94</v>
       </c>
       <c r="C183">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D183">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E183" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F183">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G183">
-        <f t="shared" si="2"/>
-        <v>53</v>
+        <f t="shared" si="3"/>
+        <v>51</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.35">
@@ -5284,20 +5293,20 @@
         <v>94</v>
       </c>
       <c r="C184">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D184">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="E184" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="F184">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G184">
-        <f t="shared" si="2"/>
-        <v>54</v>
+        <f t="shared" si="3"/>
+        <v>52</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.35">
@@ -5308,20 +5317,20 @@
         <v>94</v>
       </c>
       <c r="C185">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D185">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="E185" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="F185">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G185">
-        <f t="shared" ref="G185:G245" si="3">F185</f>
-        <v>55</v>
+        <f t="shared" si="3"/>
+        <v>53</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.35">
@@ -5332,20 +5341,20 @@
         <v>94</v>
       </c>
       <c r="C186">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D186">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E186" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F186">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G186">
         <f t="shared" si="3"/>
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.35">
@@ -5356,68 +5365,68 @@
         <v>94</v>
       </c>
       <c r="C187">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D187">
-        <v>169</v>
+        <v>32</v>
       </c>
       <c r="E187" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F187">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G187">
-        <f t="shared" si="3"/>
-        <v>57</v>
+        <f t="shared" ref="G187:G247" si="5">F187</f>
+        <v>55</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B188" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C188">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D188">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E188" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="F188">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="G188">
-        <f t="shared" si="3"/>
-        <v>45</v>
+        <f t="shared" si="5"/>
+        <v>56</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B189" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C189">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D189">
-        <v>3</v>
+        <v>169</v>
       </c>
       <c r="E189" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="F189">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="G189">
-        <f t="shared" si="3"/>
-        <v>46</v>
+        <f t="shared" si="5"/>
+        <v>57</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.35">
@@ -5428,20 +5437,20 @@
         <v>101</v>
       </c>
       <c r="C190">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D190">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E190" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F190">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G190">
-        <f t="shared" si="3"/>
-        <v>48</v>
+        <f t="shared" si="5"/>
+        <v>45</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.35">
@@ -5452,20 +5461,20 @@
         <v>101</v>
       </c>
       <c r="C191">
+        <v>1</v>
+      </c>
+      <c r="D191">
         <v>3</v>
       </c>
-      <c r="D191">
-        <v>5</v>
-      </c>
       <c r="E191" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F191">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G191">
-        <f t="shared" si="3"/>
-        <v>49</v>
+        <f t="shared" si="5"/>
+        <v>46</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.35">
@@ -5476,23 +5485,23 @@
         <v>101</v>
       </c>
       <c r="C192">
+        <v>2</v>
+      </c>
+      <c r="D192">
         <v>4</v>
       </c>
-      <c r="D192">
-        <v>30</v>
-      </c>
       <c r="E192" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F192">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G192">
-        <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>147</v>
       </c>
@@ -5500,23 +5509,23 @@
         <v>101</v>
       </c>
       <c r="C193">
+        <v>3</v>
+      </c>
+      <c r="D193">
         <v>5</v>
       </c>
-      <c r="D193">
-        <v>65</v>
-      </c>
       <c r="E193" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="F193">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G193">
-        <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>147</v>
       </c>
@@ -5524,23 +5533,23 @@
         <v>101</v>
       </c>
       <c r="C194">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D194">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="E194" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="F194">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G194">
-        <f t="shared" si="3"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>147</v>
       </c>
@@ -5548,23 +5557,23 @@
         <v>101</v>
       </c>
       <c r="C195">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D195">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E195" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F195">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G195">
-        <f t="shared" si="3"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>147</v>
       </c>
@@ -5572,23 +5581,23 @@
         <v>101</v>
       </c>
       <c r="C196">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D196">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="E196" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F196">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G196">
-        <f t="shared" si="3"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>147</v>
       </c>
@@ -5596,23 +5605,23 @@
         <v>101</v>
       </c>
       <c r="C197">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D197">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E197" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F197">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G197">
-        <f t="shared" si="3"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>147</v>
       </c>
@@ -5620,23 +5629,23 @@
         <v>101</v>
       </c>
       <c r="C198">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D198">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E198" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F198">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G198">
-        <f t="shared" si="3"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>147</v>
       </c>
@@ -5644,23 +5653,23 @@
         <v>101</v>
       </c>
       <c r="C199">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D199">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E199" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F199">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G199">
-        <f t="shared" si="3"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>147</v>
       </c>
@@ -5668,23 +5677,23 @@
         <v>101</v>
       </c>
       <c r="C200">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D200">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="E200" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="F200">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="G200">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>147</v>
       </c>
@@ -5692,23 +5701,23 @@
         <v>101</v>
       </c>
       <c r="C201">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D201">
-        <v>161</v>
+        <v>71</v>
       </c>
       <c r="E201" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="F201">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="G201">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>147</v>
       </c>
@@ -5716,23 +5725,23 @@
         <v>101</v>
       </c>
       <c r="C202">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D202">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E202" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F202">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G202">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>147</v>
       </c>
@@ -5740,23 +5749,23 @@
         <v>101</v>
       </c>
       <c r="C203">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D203">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E203" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F203">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G203">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>147</v>
       </c>
@@ -5764,23 +5773,23 @@
         <v>101</v>
       </c>
       <c r="C204">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D204">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E204" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F204">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G204">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>147</v>
       </c>
@@ -5788,23 +5797,23 @@
         <v>101</v>
       </c>
       <c r="C205">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D205">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E205" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F205">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G205">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>147</v>
       </c>
@@ -5812,23 +5821,23 @@
         <v>101</v>
       </c>
       <c r="C206">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D206">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E206" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F206">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G206">
-        <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>147</v>
       </c>
@@ -5836,23 +5845,23 @@
         <v>101</v>
       </c>
       <c r="C207">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D207">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E207" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F207">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G207">
-        <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>147</v>
       </c>
@@ -5860,31 +5869,21 @@
         <v>101</v>
       </c>
       <c r="C208">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D208">
-        <v>107</v>
+        <v>166</v>
       </c>
       <c r="E208" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="F208">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G208">
-        <f t="shared" si="3"/>
-        <v>39</v>
-      </c>
-      <c r="I208" s="2"/>
-      <c r="J208" s="2"/>
-      <c r="K208" s="2"/>
-      <c r="L208" s="2"/>
-      <c r="M208" s="2"/>
-      <c r="N208" s="2"/>
-      <c r="O208" s="2"/>
-      <c r="P208" s="2"/>
-      <c r="Q208" s="2"/>
-      <c r="R208" s="2"/>
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="209" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
@@ -5894,31 +5893,21 @@
         <v>101</v>
       </c>
       <c r="C209">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D209">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="E209" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="F209">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="G209">
-        <f t="shared" si="3"/>
-        <v>41</v>
-      </c>
-      <c r="I209" s="2"/>
-      <c r="J209" s="2"/>
-      <c r="K209" s="2"/>
-      <c r="L209" s="2"/>
-      <c r="M209" s="2"/>
-      <c r="N209" s="2"/>
-      <c r="O209" s="2"/>
-      <c r="P209" s="2"/>
-      <c r="Q209" s="2"/>
-      <c r="R209" s="2"/>
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
     </row>
     <row r="210" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
@@ -5928,20 +5917,20 @@
         <v>101</v>
       </c>
       <c r="C210">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D210">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="E210" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="F210">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G210">
-        <f t="shared" si="3"/>
-        <v>42</v>
+        <f t="shared" si="5"/>
+        <v>39</v>
       </c>
       <c r="I210" s="2"/>
       <c r="J210" s="2"/>
@@ -5962,20 +5951,20 @@
         <v>101</v>
       </c>
       <c r="C211">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D211">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="E211" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="F211">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G211">
-        <f t="shared" si="3"/>
-        <v>43</v>
+        <f t="shared" si="5"/>
+        <v>41</v>
       </c>
       <c r="I211" s="2"/>
       <c r="J211" s="2"/>
@@ -5996,20 +5985,20 @@
         <v>101</v>
       </c>
       <c r="C212">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D212">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E212" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F212">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G212">
-        <f t="shared" si="3"/>
-        <v>44</v>
+        <f t="shared" si="5"/>
+        <v>42</v>
       </c>
       <c r="I212" s="2"/>
       <c r="J212" s="2"/>
@@ -6030,20 +6019,20 @@
         <v>101</v>
       </c>
       <c r="C213">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D213">
-        <v>169</v>
+        <v>32</v>
       </c>
       <c r="E213" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F213">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G213">
-        <f t="shared" si="3"/>
-        <v>45</v>
+        <f t="shared" si="5"/>
+        <v>43</v>
       </c>
       <c r="I213" s="2"/>
       <c r="J213" s="2"/>
@@ -6058,26 +6047,26 @@
     </row>
     <row r="214" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B214" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C214">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D214">
-        <v>168</v>
+        <v>33</v>
       </c>
       <c r="E214" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="F214">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G214">
-        <f t="shared" si="3"/>
-        <v>45</v>
+        <f t="shared" si="5"/>
+        <v>44</v>
       </c>
       <c r="I214" s="2"/>
       <c r="J214" s="2"/>
@@ -6092,26 +6081,26 @@
     </row>
     <row r="215" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B215" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C215">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D215">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E215" t="s">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="F215">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G215">
-        <f t="shared" si="3"/>
-        <v>46</v>
+        <f t="shared" si="5"/>
+        <v>45</v>
       </c>
       <c r="I215" s="2"/>
       <c r="J215" s="2"/>
@@ -6132,20 +6121,20 @@
         <v>110</v>
       </c>
       <c r="C216">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D216">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E216" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F216">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G216">
-        <f t="shared" si="3"/>
-        <v>48</v>
+        <f t="shared" si="5"/>
+        <v>45</v>
       </c>
       <c r="I216" s="2"/>
       <c r="J216" s="2"/>
@@ -6166,20 +6155,20 @@
         <v>110</v>
       </c>
       <c r="C217">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D217">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E217" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F217">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G217">
-        <f t="shared" si="3"/>
-        <v>49</v>
+        <f t="shared" si="5"/>
+        <v>46</v>
       </c>
       <c r="I217" s="2"/>
       <c r="J217" s="2"/>
@@ -6200,20 +6189,20 @@
         <v>110</v>
       </c>
       <c r="C218">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D218">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E218" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F218">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G218">
-        <f t="shared" si="3"/>
-        <v>50</v>
+        <f t="shared" si="5"/>
+        <v>48</v>
       </c>
       <c r="I218" s="2"/>
       <c r="J218" s="2"/>
@@ -6234,20 +6223,20 @@
         <v>110</v>
       </c>
       <c r="C219">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D219">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="E219" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="F219">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G219">
-        <f t="shared" si="3"/>
-        <v>51</v>
+        <f t="shared" si="5"/>
+        <v>49</v>
       </c>
       <c r="I219" s="2"/>
       <c r="J219" s="2"/>
@@ -6268,20 +6257,20 @@
         <v>110</v>
       </c>
       <c r="C220">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D220">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E220" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="F220">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G220">
-        <f t="shared" si="3"/>
-        <v>52</v>
+        <f t="shared" si="5"/>
+        <v>50</v>
       </c>
       <c r="I220" s="2"/>
       <c r="J220" s="2"/>
@@ -6302,20 +6291,20 @@
         <v>110</v>
       </c>
       <c r="C221">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D221">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E221" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F221">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G221">
-        <f t="shared" si="3"/>
-        <v>54</v>
+        <f t="shared" si="5"/>
+        <v>51</v>
       </c>
       <c r="I221" s="2"/>
       <c r="J221" s="2"/>
@@ -6336,20 +6325,20 @@
         <v>110</v>
       </c>
       <c r="C222">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D222">
-        <v>39</v>
+        <v>178</v>
       </c>
       <c r="E222" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F222">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G222">
-        <f t="shared" si="3"/>
-        <v>55</v>
+        <f t="shared" si="5"/>
+        <v>52</v>
       </c>
       <c r="I222" s="2"/>
       <c r="J222" s="2"/>
@@ -6370,20 +6359,20 @@
         <v>110</v>
       </c>
       <c r="C223">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D223">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E223" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F223">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G223">
-        <f t="shared" si="3"/>
-        <v>56</v>
+        <f t="shared" si="5"/>
+        <v>54</v>
       </c>
       <c r="I223" s="2"/>
       <c r="J223" s="2"/>
@@ -6404,20 +6393,20 @@
         <v>110</v>
       </c>
       <c r="C224">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D224">
-        <v>42</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F224" s="2">
-        <v>57</v>
+        <v>39</v>
+      </c>
+      <c r="E224" t="s">
+        <v>40</v>
+      </c>
+      <c r="F224">
+        <v>55</v>
       </c>
       <c r="G224">
-        <f t="shared" si="3"/>
-        <v>57</v>
+        <f t="shared" si="5"/>
+        <v>55</v>
       </c>
       <c r="I224" s="2"/>
       <c r="J224" s="2"/>
@@ -6438,20 +6427,20 @@
         <v>110</v>
       </c>
       <c r="C225">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D225">
-        <v>115</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F225" s="2">
-        <v>58</v>
+        <v>40</v>
+      </c>
+      <c r="E225" t="s">
+        <v>42</v>
+      </c>
+      <c r="F225">
+        <v>56</v>
       </c>
       <c r="G225">
-        <f t="shared" si="3"/>
-        <v>58</v>
+        <f t="shared" si="5"/>
+        <v>56</v>
       </c>
       <c r="I225" s="2"/>
       <c r="J225" s="2"/>
@@ -6472,20 +6461,20 @@
         <v>110</v>
       </c>
       <c r="C226">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D226">
-        <v>141</v>
+        <v>42</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F226" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G226">
-        <f t="shared" si="3"/>
-        <v>59</v>
+        <f t="shared" si="5"/>
+        <v>57</v>
       </c>
       <c r="I226" s="2"/>
       <c r="J226" s="2"/>
@@ -6506,20 +6495,20 @@
         <v>110</v>
       </c>
       <c r="C227">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D227">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="F227" s="2">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="G227">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>58</v>
       </c>
       <c r="I227" s="2"/>
       <c r="J227" s="2"/>
@@ -6540,20 +6529,20 @@
         <v>110</v>
       </c>
       <c r="C228">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D228">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="F228" s="2">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G228">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="5"/>
+        <v>59</v>
       </c>
       <c r="I228" s="2"/>
       <c r="J228" s="2"/>
@@ -6574,20 +6563,20 @@
         <v>110</v>
       </c>
       <c r="C229">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D229">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F229" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G229">
-        <f t="shared" si="3"/>
-        <v>16</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="I229" s="2"/>
       <c r="J229" s="2"/>
@@ -6608,20 +6597,20 @@
         <v>110</v>
       </c>
       <c r="C230">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D230">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F230" s="2">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G230">
-        <f t="shared" si="3"/>
-        <v>19</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="I230" s="2"/>
       <c r="J230" s="2"/>
@@ -6642,20 +6631,20 @@
         <v>110</v>
       </c>
       <c r="C231">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D231">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F231" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G231">
-        <f t="shared" si="3"/>
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>16</v>
       </c>
       <c r="I231" s="2"/>
       <c r="J231" s="2"/>
@@ -6676,20 +6665,20 @@
         <v>110</v>
       </c>
       <c r="C232">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D232">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F232" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G232">
-        <f t="shared" si="3"/>
-        <v>21</v>
+        <f t="shared" si="5"/>
+        <v>19</v>
       </c>
       <c r="I232" s="2"/>
       <c r="J232" s="2"/>
@@ -6710,20 +6699,20 @@
         <v>110</v>
       </c>
       <c r="C233">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D233">
-        <v>155</v>
-      </c>
-      <c r="E233" t="s">
-        <v>122</v>
-      </c>
-      <c r="F233">
-        <v>21</v>
+        <v>153</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F233" s="2">
+        <v>20</v>
       </c>
       <c r="G233">
-        <f t="shared" si="3"/>
-        <v>21</v>
+        <f t="shared" si="5"/>
+        <v>20</v>
       </c>
       <c r="I233" s="2"/>
       <c r="J233" s="2"/>
@@ -6744,20 +6733,20 @@
         <v>110</v>
       </c>
       <c r="C234">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D234">
-        <v>156</v>
-      </c>
-      <c r="E234" t="s">
-        <v>123</v>
-      </c>
-      <c r="F234">
-        <v>23</v>
+        <v>154</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F234" s="2">
+        <v>21</v>
       </c>
       <c r="G234">
-        <f t="shared" si="3"/>
-        <v>23</v>
+        <f t="shared" si="5"/>
+        <v>21</v>
       </c>
       <c r="I234" s="2"/>
       <c r="J234" s="2"/>
@@ -6778,20 +6767,20 @@
         <v>110</v>
       </c>
       <c r="C235">
+        <v>19</v>
+      </c>
+      <c r="D235">
+        <v>155</v>
+      </c>
+      <c r="E235" t="s">
+        <v>122</v>
+      </c>
+      <c r="F235">
         <v>21</v>
       </c>
-      <c r="D235">
-        <v>157</v>
-      </c>
-      <c r="E235" t="s">
-        <v>124</v>
-      </c>
-      <c r="F235">
-        <v>24</v>
-      </c>
       <c r="G235">
-        <f t="shared" si="3"/>
-        <v>24</v>
+        <f t="shared" si="5"/>
+        <v>21</v>
       </c>
       <c r="I235" s="2"/>
       <c r="J235" s="2"/>
@@ -6812,20 +6801,20 @@
         <v>110</v>
       </c>
       <c r="C236">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D236">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E236" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F236">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G236">
-        <f t="shared" si="3"/>
-        <v>26</v>
+        <f t="shared" si="5"/>
+        <v>23</v>
       </c>
       <c r="I236" s="2"/>
       <c r="J236" s="2"/>
@@ -6846,20 +6835,20 @@
         <v>110</v>
       </c>
       <c r="C237">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D237">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E237" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F237">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G237">
-        <f t="shared" si="3"/>
-        <v>27</v>
+        <f t="shared" si="5"/>
+        <v>24</v>
       </c>
       <c r="I237" s="2"/>
       <c r="J237" s="2"/>
@@ -6880,20 +6869,20 @@
         <v>110</v>
       </c>
       <c r="C238">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D238">
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="E238" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="F238">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G238">
-        <f t="shared" si="3"/>
-        <v>33</v>
+        <f t="shared" si="5"/>
+        <v>26</v>
       </c>
       <c r="I238" s="2"/>
       <c r="J238" s="2"/>
@@ -6914,20 +6903,20 @@
         <v>110</v>
       </c>
       <c r="C239">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D239">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="E239" t="s">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="F239">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G239">
-        <f t="shared" si="3"/>
-        <v>34</v>
+        <f t="shared" si="5"/>
+        <v>27</v>
       </c>
       <c r="I239" s="2"/>
       <c r="J239" s="2"/>
@@ -6948,20 +6937,20 @@
         <v>110</v>
       </c>
       <c r="C240">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D240">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E240" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F240">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G240">
-        <f t="shared" si="3"/>
-        <v>35</v>
+        <f t="shared" si="5"/>
+        <v>33</v>
       </c>
       <c r="I240" s="2"/>
       <c r="J240" s="2"/>
@@ -6974,7 +6963,7 @@
       <c r="Q240" s="2"/>
       <c r="R240" s="2"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>148</v>
       </c>
@@ -6982,23 +6971,33 @@
         <v>110</v>
       </c>
       <c r="C241">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D241">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="E241" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F241">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G241">
-        <f t="shared" si="3"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+      <c r="I241" s="2"/>
+      <c r="J241" s="2"/>
+      <c r="K241" s="2"/>
+      <c r="L241" s="2"/>
+      <c r="M241" s="2"/>
+      <c r="N241" s="2"/>
+      <c r="O241" s="2"/>
+      <c r="P241" s="2"/>
+      <c r="Q241" s="2"/>
+      <c r="R241" s="2"/>
+    </row>
+    <row r="242" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>148</v>
       </c>
@@ -7006,23 +7005,33 @@
         <v>110</v>
       </c>
       <c r="C242">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D242">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="E242" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F242">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G242">
-        <f t="shared" si="3"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="I242" s="2"/>
+      <c r="J242" s="2"/>
+      <c r="K242" s="2"/>
+      <c r="L242" s="2"/>
+      <c r="M242" s="2"/>
+      <c r="N242" s="2"/>
+      <c r="O242" s="2"/>
+      <c r="P242" s="2"/>
+      <c r="Q242" s="2"/>
+      <c r="R242" s="2"/>
+    </row>
+    <row r="243" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>148</v>
       </c>
@@ -7030,23 +7039,23 @@
         <v>110</v>
       </c>
       <c r="C243">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D243">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E243" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F243">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G243">
-        <f t="shared" si="3"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="244" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>148</v>
       </c>
@@ -7054,23 +7063,23 @@
         <v>110</v>
       </c>
       <c r="C244">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D244">
+        <v>44</v>
+      </c>
+      <c r="E244" t="s">
+        <v>43</v>
+      </c>
+      <c r="F244">
         <v>38</v>
       </c>
-      <c r="E244" t="s">
-        <v>44</v>
-      </c>
-      <c r="F244">
-        <v>39</v>
-      </c>
       <c r="G244">
-        <f t="shared" si="3"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="245" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>148</v>
       </c>
@@ -7078,25 +7087,679 @@
         <v>110</v>
       </c>
       <c r="C245">
+        <v>29</v>
+      </c>
+      <c r="D245">
+        <v>45</v>
+      </c>
+      <c r="E245" t="s">
+        <v>39</v>
+      </c>
+      <c r="F245">
+        <v>38</v>
+      </c>
+      <c r="G245">
+        <f t="shared" si="5"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="246" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>148</v>
+      </c>
+      <c r="B246" t="s">
+        <v>110</v>
+      </c>
+      <c r="C246">
+        <v>30</v>
+      </c>
+      <c r="D246">
+        <v>38</v>
+      </c>
+      <c r="E246" t="s">
+        <v>44</v>
+      </c>
+      <c r="F246">
+        <v>39</v>
+      </c>
+      <c r="G246">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="247" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>148</v>
+      </c>
+      <c r="B247" t="s">
+        <v>110</v>
+      </c>
+      <c r="C247">
         <v>31</v>
       </c>
-      <c r="D245">
+      <c r="D247">
         <v>1</v>
       </c>
-      <c r="E245" t="s">
+      <c r="E247" t="s">
         <v>6</v>
       </c>
-      <c r="F245">
+      <c r="F247">
         <v>40</v>
       </c>
-      <c r="G245">
-        <f t="shared" si="3"/>
+      <c r="G247">
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I245" xr:uid="{83B3D47E-06F5-4A10-8434-91675729E215}"/>
+  <autoFilter ref="A1:I247" xr:uid="{83B3D47E-06F5-4A10-8434-91675729E215}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{602CFE1D-E87E-46B0-8166-DF31A740BB3B}">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>116</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.28333333333333333</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.28333333333333333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>64</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.28402777777777777</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.28402777777777777</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>117</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.28541666666666665</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.28541666666666665</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>118</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.28541666666666665</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.28541666666666665</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2">
+        <v>119</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.28611111111111115</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.28611111111111115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="2">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>43</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.28680555555555554</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.28680555555555554</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="2">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2">
+        <v>44</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.28680555555555554</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.28680555555555554</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="2">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2">
+        <v>45</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.28750000000000003</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.28750000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="2">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2">
+        <v>38</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.28888888888888892</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.28888888888888892</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="2">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2">
+        <v>169</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.28958333333333336</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.28958333333333336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>81</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.30555555555555552</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.30555555555555552</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>82</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.30694444444444441</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.30694444444444441</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>83</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.30763888888888891</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.30763888888888891</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2">
+        <v>84</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.30763888888888891</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.30763888888888891</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2">
+        <v>85</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.30833333333333335</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.30833333333333335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="2">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2">
+        <v>33</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0.30902777777777779</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="2">
+        <v>6</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.30972222222222223</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.30972222222222223</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>81</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>82</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.28611111111111109</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.28611111111111109</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2">
+        <v>83</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.28680555555555559</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.28680555555555559</v>
+      </c>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="2">
+        <v>3</v>
+      </c>
+      <c r="D22" s="2">
+        <v>84</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.28680555555555559</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0.28680555555555559</v>
+      </c>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="2">
+        <v>4</v>
+      </c>
+      <c r="D23" s="2">
+        <v>85</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.28750000000000003</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0.28750000000000003</v>
+      </c>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="2">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2">
+        <v>33</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0.28819444444444448</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0.28819444444444448</v>
+      </c>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="2">
+        <v>6</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.28888888888888892</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0.28888888888888892</v>
+      </c>
+      <c r="H25" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>